--- a/已上传订单.xlsx
+++ b/已上传订单.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <name val="宋体"/>
       <charset val="134"/>
@@ -28,9 +28,16 @@
     <font>
       <name val="宋体"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
       <b val="1"/>
       <color theme="1"/>
-      <sz val="11"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -38,13 +45,6 @@
       <charset val="134"/>
       <color theme="0"/>
       <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <color theme="1"/>
-      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -71,8 +71,67 @@
     </font>
     <font>
       <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF3F3F76"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C0006"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <b val="1"/>
+      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
       <charset val="134"/>
-      <color theme="1"/>
+      <b val="1"/>
+      <color theme="3"/>
+      <sz val="13"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FFFF0000"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <color rgb="FF9C6500"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -111,36 +170,6 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <i val="1"/>
       <color rgb="FF7F7F7F"/>
       <sz val="11"/>
@@ -157,37 +186,8 @@
     <font>
       <name val="宋体"/>
       <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
       <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
@@ -197,13 +197,6 @@
       <b val="1"/>
       <color theme="3"/>
       <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -228,19 +221,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,13 +251,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,61 +287,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -342,7 +311,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,61 +395,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +447,50 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -477,41 +514,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -525,187 +527,180 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="42">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="27" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="23" fontId="18" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="44">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="41">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="42">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="15" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="11" fontId="12" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="43">
+    <xf applyAlignment="1" borderId="2" fillId="11" fontId="7" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="44">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="41">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="12" fontId="8" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="43">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="23" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="9">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="21" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="9" fillId="34" fontId="0" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="27" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="14" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="18" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="20" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="23" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="6" fillId="0" fontId="13" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="10" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="17" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="31" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="17" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="8" fillId="30" fontId="7" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="10" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="16" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="23" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="21" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="34" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="4" fillId="14" fontId="10" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="14" fontId="16" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="8" fillId="33" fontId="22" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="18" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="5" fillId="0" fontId="11" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="9" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="33" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="5" fillId="10" fontId="15" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="10" fontId="8" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="4" fillId="14" fontId="13" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="26" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="22" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="24" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="20" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="19" fontId="14" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="25" fontId="19" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="13" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="22" fontId="12" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="26" fontId="15" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="20" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="30" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="25" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="32" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="5" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="32" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="29" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="21" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="18" fontId="5" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="9" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="29" fontId="6" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="19" fontId="5" numFmtId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="13" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="24" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="9" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="20" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="12" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="17" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="28" fontId="6" numFmtId="0">
+    <xf applyAlignment="1" borderId="0" fillId="28" fontId="5" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="8" fontId="6" numFmtId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="16" fontId="5" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="3" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1124,225 +1119,226 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
       <selection activeCell="A1" sqref="A1"/>
-      <selection activeCell="H30" pane="bottomLeft" sqref="H30"/>
+      <selection activeCell="I30" pane="bottomLeft" sqref="I30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="11.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="1" width="4.25"/>
-    <col customWidth="1" max="2" min="2" width="8.125"/>
-    <col customWidth="1" max="3" min="3" width="11.625"/>
-    <col customWidth="1" max="4" min="4" width="12.875"/>
-    <col customWidth="1" max="5" min="5" width="14.125"/>
-    <col customWidth="1" max="6" min="6" width="9.75"/>
-    <col customWidth="1" max="7" min="7" width="10.375"/>
-    <col customWidth="1" max="8" min="8" width="30.125"/>
-    <col customWidth="1" max="9" min="9" width="8.375"/>
-    <col customWidth="1" max="11" min="10" width="10.375"/>
-    <col customWidth="1" max="12" min="12" width="11.625"/>
-    <col customWidth="1" max="13" min="13" width="9.25"/>
-    <col customWidth="1" max="14" min="14" width="12.875"/>
-    <col customWidth="1" max="15" min="15" width="11.625"/>
-    <col customWidth="1" max="16" min="16" width="14.125"/>
-    <col customWidth="1" max="17" min="17" width="11.625"/>
-    <col customWidth="1" max="18" min="18" width="21.5"/>
-    <col customWidth="1" max="19" min="19" width="11.625"/>
-    <col customWidth="1" max="20" min="20" width="14.125"/>
+    <col customWidth="1" max="1" min="1" style="6" width="4.25"/>
+    <col customWidth="1" max="2" min="2" style="8" width="8.125"/>
+    <col customWidth="1" max="3" min="3" style="8" width="11.625"/>
+    <col customWidth="1" max="4" min="4" style="8" width="12.875"/>
+    <col customWidth="1" max="5" min="5" style="8" width="14.125"/>
+    <col customWidth="1" max="6" min="6" style="8" width="9.75"/>
+    <col customWidth="1" max="7" min="7" style="8" width="10.375"/>
+    <col customWidth="1" max="8" min="8" style="8" width="30.125"/>
+    <col customWidth="1" max="9" min="9" style="8" width="8.375"/>
+    <col customWidth="1" max="11" min="10" style="8" width="10.375"/>
+    <col customWidth="1" max="12" min="12" style="8" width="11.625"/>
+    <col customWidth="1" max="13" min="13" style="8" width="9.25"/>
+    <col customWidth="1" max="14" min="14" style="8" width="12.875"/>
+    <col customWidth="1" max="15" min="15" style="8" width="11.625"/>
+    <col customWidth="1" max="16" min="16" style="8" width="14.125"/>
+    <col customWidth="1" max="17" min="17" style="8" width="11.625"/>
+    <col customWidth="1" max="18" min="18" style="8" width="21.5"/>
+    <col customWidth="1" max="19" min="19" style="8" width="11.625"/>
+    <col customWidth="1" max="20" min="20" style="8" width="14.125"/>
+    <col customWidth="1" max="16384" min="21" style="8" width="9"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="39" r="1">
-      <c r="A1" s="3" t="inlineStr">
+    <row customHeight="1" ht="39" r="1" s="1">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>已上传订单明细</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
+    <row customHeight="1" ht="13.5" r="2" s="1">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>banded</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>cust_code</t>
         </is>
       </c>
-      <c r="D2" s="4" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>fab_device</t>
         </is>
       </c>
-      <c r="E2" s="4" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>cust_device</t>
         </is>
       </c>
-      <c r="F2" s="4" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>npi_owner</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>ht_pn</t>
         </is>
       </c>
-      <c r="H2" s="4" t="inlineStr">
+      <c r="H2" s="5" t="inlineStr">
         <is>
           <t>po_id</t>
         </is>
       </c>
-      <c r="I2" s="4" t="inlineStr">
+      <c r="I2" s="5" t="inlineStr">
         <is>
           <t>lot_id</t>
         </is>
       </c>
-      <c r="J2" s="4" t="inlineStr">
+      <c r="J2" s="5" t="inlineStr">
         <is>
           <t>wafer_no</t>
         </is>
       </c>
-      <c r="K2" s="4" t="inlineStr">
+      <c r="K2" s="5" t="inlineStr">
         <is>
           <t>wafer_id</t>
         </is>
       </c>
-      <c r="L2" s="4" t="inlineStr">
+      <c r="L2" s="5" t="inlineStr">
         <is>
           <t>good_dies</t>
         </is>
       </c>
-      <c r="M2" s="4" t="inlineStr">
+      <c r="M2" s="5" t="inlineStr">
         <is>
           <t>ng_dies</t>
         </is>
       </c>
-      <c r="N2" s="4" t="inlineStr">
+      <c r="N2" s="5" t="inlineStr">
         <is>
           <t>gross_dies</t>
         </is>
       </c>
-      <c r="O2" s="4" t="inlineStr">
+      <c r="O2" s="5" t="inlineStr">
         <is>
           <t>mark_code</t>
         </is>
       </c>
-      <c r="P2" s="4" t="inlineStr">
+      <c r="P2" s="5" t="inlineStr">
         <is>
           <t>second_code</t>
         </is>
       </c>
-      <c r="Q2" s="4" t="inlineStr">
+      <c r="Q2" s="5" t="inlineStr">
         <is>
           <t>upload_by</t>
         </is>
       </c>
-      <c r="R2" s="4" t="inlineStr">
+      <c r="R2" s="5" t="inlineStr">
         <is>
           <t>upload_date</t>
         </is>
       </c>
-      <c r="S2" s="8" t="inlineStr">
+      <c r="S2" s="9" t="inlineStr">
         <is>
           <t>update_by</t>
         </is>
       </c>
-      <c r="T2" s="9" t="inlineStr">
+      <c r="T2" s="10" t="inlineStr">
         <is>
           <t>update_date</t>
         </is>
       </c>
-      <c r="U2" s="1" t="n"/>
+      <c r="U2" s="11" t="n"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E3" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="D3" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E3" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F3" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G3" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I3" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J3" s="7" t="inlineStr">
+      <c r="G3" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H3" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I3" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J3" s="8" t="inlineStr">
         <is>
           <t>01</t>
         </is>
       </c>
-      <c r="K3" s="7" t="inlineStr">
-        <is>
-          <t>TW9341001</t>
-        </is>
-      </c>
-      <c r="L3" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M3" s="7" t="n">
+      <c r="K3" s="8" t="inlineStr">
+        <is>
+          <t>TW3540001</t>
+        </is>
+      </c>
+      <c r="L3" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M3" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N3" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O3" s="7" t="inlineStr">
+      <c r="N3" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O3" s="8" t="inlineStr">
         <is>
           <t>ABC01</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
+      <c r="P3" s="8" t="inlineStr"/>
+      <c r="Q3" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:18</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="inlineStr"/>
+      <c r="R3" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:28</t>
+        </is>
+      </c>
+      <c r="S3" s="8" t="inlineStr"/>
+      <c r="T3" s="8" t="inlineStr"/>
       <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
@@ -1378,88 +1374,88 @@
       <c r="BA3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E4" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="D4" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F4" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G4" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H4" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I4" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J4" s="7" t="inlineStr">
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I4" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J4" s="8" t="inlineStr">
         <is>
           <t>02</t>
         </is>
       </c>
-      <c r="K4" s="7" t="inlineStr">
-        <is>
-          <t>TW9341002</t>
-        </is>
-      </c>
-      <c r="L4" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M4" s="7" t="n">
+      <c r="K4" s="8" t="inlineStr">
+        <is>
+          <t>TW3540002</t>
+        </is>
+      </c>
+      <c r="L4" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M4" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N4" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O4" s="7" t="inlineStr">
+      <c r="N4" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O4" s="8" t="inlineStr">
         <is>
           <t>ABC02</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr">
+      <c r="P4" s="8" t="inlineStr"/>
+      <c r="Q4" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:21</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="inlineStr"/>
+      <c r="R4" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:29</t>
+        </is>
+      </c>
+      <c r="S4" s="8" t="inlineStr"/>
+      <c r="T4" s="8" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
@@ -1495,88 +1491,88 @@
       <c r="BA4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" s="5" t="inlineStr">
+      <c r="A5" s="6" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E5" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="D5" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E5" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F5" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G5" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H5" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I5" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J5" s="7" t="inlineStr">
+      <c r="G5" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H5" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I5" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J5" s="8" t="inlineStr">
         <is>
           <t>03</t>
         </is>
       </c>
-      <c r="K5" s="7" t="inlineStr">
-        <is>
-          <t>TW9341003</t>
-        </is>
-      </c>
-      <c r="L5" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M5" s="7" t="n">
+      <c r="K5" s="8" t="inlineStr">
+        <is>
+          <t>TW3540003</t>
+        </is>
+      </c>
+      <c r="L5" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M5" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N5" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O5" s="7" t="inlineStr">
+      <c r="N5" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O5" s="8" t="inlineStr">
         <is>
           <t>ABC03</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr">
+      <c r="P5" s="8" t="inlineStr"/>
+      <c r="Q5" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:22</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
-      <c r="T5" t="inlineStr"/>
+      <c r="R5" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:29</t>
+        </is>
+      </c>
+      <c r="S5" s="8" t="inlineStr"/>
+      <c r="T5" s="8" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
@@ -1612,88 +1608,88 @@
       <c r="BA5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="inlineStr">
+      <c r="A6" s="6" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E6" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F6" s="7" t="inlineStr">
+      <c r="D6" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E6" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F6" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G6" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H6" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I6" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J6" s="7" t="inlineStr">
+      <c r="G6" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H6" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I6" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J6" s="8" t="inlineStr">
         <is>
           <t>04</t>
         </is>
       </c>
-      <c r="K6" s="7" t="inlineStr">
-        <is>
-          <t>TW9341004</t>
-        </is>
-      </c>
-      <c r="L6" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M6" s="7" t="n">
+      <c r="K6" s="8" t="inlineStr">
+        <is>
+          <t>TW3540004</t>
+        </is>
+      </c>
+      <c r="L6" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M6" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N6" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O6" s="7" t="inlineStr">
+      <c r="N6" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O6" s="8" t="inlineStr">
         <is>
           <t>ABC04</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr">
+      <c r="P6" s="8" t="inlineStr"/>
+      <c r="Q6" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:24</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr"/>
-      <c r="T6" t="inlineStr"/>
+      <c r="R6" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:30</t>
+        </is>
+      </c>
+      <c r="S6" s="8" t="inlineStr"/>
+      <c r="T6" s="8" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
@@ -1729,88 +1725,88 @@
       <c r="BA6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="inlineStr">
+      <c r="A7" s="6" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E7" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="D7" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E7" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F7" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G7" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H7" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I7" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J7" s="7" t="inlineStr">
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H7" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I7" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J7" s="8" t="inlineStr">
         <is>
           <t>05</t>
         </is>
       </c>
-      <c r="K7" s="7" t="inlineStr">
-        <is>
-          <t>TW9341005</t>
-        </is>
-      </c>
-      <c r="L7" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M7" s="7" t="n">
+      <c r="K7" s="8" t="inlineStr">
+        <is>
+          <t>TW3540005</t>
+        </is>
+      </c>
+      <c r="L7" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N7" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O7" s="7" t="inlineStr">
+      <c r="N7" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O7" s="8" t="inlineStr">
         <is>
           <t>ABC05</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr">
+      <c r="P7" s="8" t="inlineStr"/>
+      <c r="Q7" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:25</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr"/>
-      <c r="T7" t="inlineStr"/>
+      <c r="R7" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:30</t>
+        </is>
+      </c>
+      <c r="S7" s="8" t="inlineStr"/>
+      <c r="T7" s="8" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
@@ -1846,88 +1842,88 @@
       <c r="BA7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="inlineStr">
+      <c r="A8" s="6" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B8" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C8" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E8" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F8" s="7" t="inlineStr">
+      <c r="D8" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E8" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F8" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G8" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I8" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J8" s="7" t="inlineStr">
+      <c r="G8" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H8" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I8" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J8" s="8" t="inlineStr">
         <is>
           <t>06</t>
         </is>
       </c>
-      <c r="K8" s="7" t="inlineStr">
-        <is>
-          <t>TW9341006</t>
-        </is>
-      </c>
-      <c r="L8" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M8" s="7" t="n">
+      <c r="K8" s="8" t="inlineStr">
+        <is>
+          <t>TW3540006</t>
+        </is>
+      </c>
+      <c r="L8" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M8" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N8" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O8" s="7" t="inlineStr">
+      <c r="N8" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O8" s="8" t="inlineStr">
         <is>
           <t>ABC06</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr">
+      <c r="P8" s="8" t="inlineStr"/>
+      <c r="Q8" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:27</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr"/>
-      <c r="T8" t="inlineStr"/>
+      <c r="R8" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:30</t>
+        </is>
+      </c>
+      <c r="S8" s="8" t="inlineStr"/>
+      <c r="T8" s="8" t="inlineStr"/>
       <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
@@ -1963,88 +1959,88 @@
       <c r="BA8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="inlineStr">
+      <c r="A9" s="6" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E9" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F9" s="7" t="inlineStr">
+      <c r="D9" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F9" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G9" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I9" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J9" s="7" t="inlineStr">
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H9" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I9" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J9" s="8" t="inlineStr">
         <is>
           <t>07</t>
         </is>
       </c>
-      <c r="K9" s="7" t="inlineStr">
-        <is>
-          <t>TW9341007</t>
-        </is>
-      </c>
-      <c r="L9" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M9" s="7" t="n">
+      <c r="K9" s="8" t="inlineStr">
+        <is>
+          <t>TW3540007</t>
+        </is>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M9" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N9" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O9" s="7" t="inlineStr">
+      <c r="N9" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O9" s="8" t="inlineStr">
         <is>
           <t>ABC07</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr">
+      <c r="P9" s="8" t="inlineStr"/>
+      <c r="Q9" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:28</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr"/>
-      <c r="T9" t="inlineStr"/>
+      <c r="R9" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:31</t>
+        </is>
+      </c>
+      <c r="S9" s="8" t="inlineStr"/>
+      <c r="T9" s="8" t="inlineStr"/>
       <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
@@ -2080,88 +2076,88 @@
       <c r="BA9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="inlineStr">
+      <c r="A10" s="6" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="B10" s="7" t="inlineStr">
+      <c r="B10" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="C10" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D10" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E10" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F10" s="7" t="inlineStr">
+      <c r="D10" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E10" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F10" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G10" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I10" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J10" s="7" t="inlineStr">
+      <c r="G10" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I10" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J10" s="8" t="inlineStr">
         <is>
           <t>08</t>
         </is>
       </c>
-      <c r="K10" s="7" t="inlineStr">
-        <is>
-          <t>TW9341008</t>
-        </is>
-      </c>
-      <c r="L10" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M10" s="7" t="n">
+      <c r="K10" s="8" t="inlineStr">
+        <is>
+          <t>TW3540008</t>
+        </is>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M10" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N10" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O10" s="7" t="inlineStr">
+      <c r="N10" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O10" s="8" t="inlineStr">
         <is>
           <t>ABC08</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr">
+      <c r="P10" s="8" t="inlineStr"/>
+      <c r="Q10" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:30</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr"/>
-      <c r="T10" t="inlineStr"/>
+      <c r="R10" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:31</t>
+        </is>
+      </c>
+      <c r="S10" s="8" t="inlineStr"/>
+      <c r="T10" s="8" t="inlineStr"/>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
@@ -2197,88 +2193,88 @@
       <c r="BA10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="inlineStr">
+      <c r="A11" s="6" t="inlineStr">
         <is>
           <t>9</t>
         </is>
       </c>
-      <c r="B11" s="7" t="inlineStr">
+      <c r="B11" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C11" s="7" t="inlineStr">
+      <c r="C11" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D11" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E11" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="inlineStr">
+      <c r="D11" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F11" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G11" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J11" s="7" t="inlineStr">
+      <c r="G11" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H11" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I11" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J11" s="8" t="inlineStr">
         <is>
           <t>09</t>
         </is>
       </c>
-      <c r="K11" s="7" t="inlineStr">
-        <is>
-          <t>TW9341009</t>
-        </is>
-      </c>
-      <c r="L11" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M11" s="7" t="n">
+      <c r="K11" s="8" t="inlineStr">
+        <is>
+          <t>TW3540009</t>
+        </is>
+      </c>
+      <c r="L11" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M11" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N11" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O11" s="7" t="inlineStr">
+      <c r="N11" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O11" s="8" t="inlineStr">
         <is>
           <t>ABC09</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr">
+      <c r="P11" s="8" t="inlineStr"/>
+      <c r="Q11" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:32</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
-      <c r="T11" t="inlineStr"/>
+      <c r="R11" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:31</t>
+        </is>
+      </c>
+      <c r="S11" s="8" t="inlineStr"/>
+      <c r="T11" s="8" t="inlineStr"/>
       <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
@@ -2314,88 +2310,88 @@
       <c r="BA11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="inlineStr">
+      <c r="A12" s="6" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="B12" s="7" t="inlineStr">
+      <c r="B12" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C12" s="7" t="inlineStr">
+      <c r="C12" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D12" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E12" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F12" s="7" t="inlineStr">
+      <c r="D12" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F12" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G12" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H12" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J12" s="7" t="inlineStr">
+      <c r="G12" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H12" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I12" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J12" s="8" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="K12" s="7" t="inlineStr">
-        <is>
-          <t>TW9341010</t>
-        </is>
-      </c>
-      <c r="L12" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M12" s="7" t="n">
+      <c r="K12" s="8" t="inlineStr">
+        <is>
+          <t>TW3540010</t>
+        </is>
+      </c>
+      <c r="L12" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M12" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N12" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O12" s="7" t="inlineStr">
+      <c r="N12" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O12" s="8" t="inlineStr">
         <is>
           <t>ABC10</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr">
+      <c r="P12" s="8" t="inlineStr"/>
+      <c r="Q12" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:33</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr"/>
-      <c r="T12" t="inlineStr"/>
+      <c r="R12" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:32</t>
+        </is>
+      </c>
+      <c r="S12" s="8" t="inlineStr"/>
+      <c r="T12" s="8" t="inlineStr"/>
       <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
@@ -2431,88 +2427,88 @@
       <c r="BA12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="inlineStr">
+      <c r="A13" s="6" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="B13" s="7" t="inlineStr">
+      <c r="B13" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C13" s="7" t="inlineStr">
+      <c r="C13" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D13" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E13" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F13" s="7" t="inlineStr">
+      <c r="D13" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F13" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G13" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H13" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I13" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J13" s="7" t="inlineStr">
+      <c r="G13" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H13" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I13" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J13" s="8" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="K13" s="7" t="inlineStr">
-        <is>
-          <t>TW9341011</t>
-        </is>
-      </c>
-      <c r="L13" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M13" s="7" t="n">
+      <c r="K13" s="8" t="inlineStr">
+        <is>
+          <t>TW3540011</t>
+        </is>
+      </c>
+      <c r="L13" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M13" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O13" s="7" t="inlineStr">
+      <c r="N13" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O13" s="8" t="inlineStr">
         <is>
           <t>ABC11</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr">
+      <c r="P13" s="8" t="inlineStr"/>
+      <c r="Q13" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:35</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr"/>
-      <c r="T13" t="inlineStr"/>
+      <c r="R13" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:32</t>
+        </is>
+      </c>
+      <c r="S13" s="8" t="inlineStr"/>
+      <c r="T13" s="8" t="inlineStr"/>
       <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
@@ -2548,88 +2544,88 @@
       <c r="BA13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="inlineStr">
+      <c r="A14" s="6" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="B14" s="7" t="inlineStr">
+      <c r="B14" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C14" s="7" t="inlineStr">
+      <c r="C14" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D14" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E14" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F14" s="7" t="inlineStr">
+      <c r="D14" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E14" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F14" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G14" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I14" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J14" s="7" t="inlineStr">
+      <c r="G14" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H14" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I14" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J14" s="8" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="K14" s="7" t="inlineStr">
-        <is>
-          <t>TW9341012</t>
-        </is>
-      </c>
-      <c r="L14" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M14" s="7" t="n">
+      <c r="K14" s="8" t="inlineStr">
+        <is>
+          <t>TW3540012</t>
+        </is>
+      </c>
+      <c r="L14" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O14" s="7" t="inlineStr">
+      <c r="N14" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O14" s="8" t="inlineStr">
         <is>
           <t>ABC12</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr">
+      <c r="P14" s="8" t="inlineStr"/>
+      <c r="Q14" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:36</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr"/>
-      <c r="T14" t="inlineStr"/>
+      <c r="R14" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:32</t>
+        </is>
+      </c>
+      <c r="S14" s="8" t="inlineStr"/>
+      <c r="T14" s="8" t="inlineStr"/>
       <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
@@ -2665,88 +2661,88 @@
       <c r="BA14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="inlineStr">
+      <c r="A15" s="6" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="B15" s="7" t="inlineStr">
+      <c r="B15" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C15" s="7" t="inlineStr">
+      <c r="C15" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D15" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E15" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="inlineStr">
+      <c r="D15" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E15" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F15" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G15" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I15" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J15" s="7" t="inlineStr">
+      <c r="G15" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H15" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I15" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J15" s="8" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="K15" s="7" t="inlineStr">
-        <is>
-          <t>TW9341013</t>
-        </is>
-      </c>
-      <c r="L15" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M15" s="7" t="n">
+      <c r="K15" s="8" t="inlineStr">
+        <is>
+          <t>TW3540013</t>
+        </is>
+      </c>
+      <c r="L15" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M15" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O15" s="7" t="inlineStr">
+      <c r="N15" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O15" s="8" t="inlineStr">
         <is>
           <t>ABC13</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr">
+      <c r="P15" s="8" t="inlineStr"/>
+      <c r="Q15" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:38</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
+      <c r="R15" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:33</t>
+        </is>
+      </c>
+      <c r="S15" s="8" t="inlineStr"/>
+      <c r="T15" s="8" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
@@ -2782,88 +2778,88 @@
       <c r="BA15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="inlineStr">
+      <c r="A16" s="6" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="B16" s="7" t="inlineStr">
+      <c r="B16" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C16" s="7" t="inlineStr">
+      <c r="C16" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D16" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E16" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F16" s="7" t="inlineStr">
+      <c r="D16" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E16" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F16" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G16" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H16" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I16" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J16" s="7" t="inlineStr">
+      <c r="G16" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I16" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J16" s="8" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="K16" s="7" t="inlineStr">
-        <is>
-          <t>TW9341014</t>
-        </is>
-      </c>
-      <c r="L16" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M16" s="7" t="n">
+      <c r="K16" s="8" t="inlineStr">
+        <is>
+          <t>TW3540014</t>
+        </is>
+      </c>
+      <c r="L16" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M16" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N16" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O16" s="7" t="inlineStr">
+      <c r="N16" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O16" s="8" t="inlineStr">
         <is>
           <t>ABC14</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
+      <c r="P16" s="8" t="inlineStr"/>
+      <c r="Q16" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:39</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
+      <c r="R16" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:33</t>
+        </is>
+      </c>
+      <c r="S16" s="8" t="inlineStr"/>
+      <c r="T16" s="8" t="inlineStr"/>
       <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
@@ -2899,88 +2895,88 @@
       <c r="BA16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="5" t="inlineStr">
+      <c r="A17" s="6" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="B17" s="7" t="inlineStr">
+      <c r="B17" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C17" s="7" t="inlineStr">
+      <c r="C17" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D17" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E17" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F17" s="7" t="inlineStr">
+      <c r="D17" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E17" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F17" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G17" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H17" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I17" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J17" s="7" t="inlineStr">
+      <c r="G17" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I17" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J17" s="8" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="K17" s="7" t="inlineStr">
-        <is>
-          <t>TW9341015</t>
-        </is>
-      </c>
-      <c r="L17" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M17" s="7" t="n">
+      <c r="K17" s="8" t="inlineStr">
+        <is>
+          <t>TW3540015</t>
+        </is>
+      </c>
+      <c r="L17" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M17" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O17" s="7" t="inlineStr">
+      <c r="N17" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O17" s="8" t="inlineStr">
         <is>
           <t>ABC15</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr">
+      <c r="P17" s="8" t="inlineStr"/>
+      <c r="Q17" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:41</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
+      <c r="R17" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:33</t>
+        </is>
+      </c>
+      <c r="S17" s="8" t="inlineStr"/>
+      <c r="T17" s="8" t="inlineStr"/>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
@@ -3016,88 +3012,88 @@
       <c r="BA17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" s="5" t="inlineStr">
+      <c r="A18" s="6" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="B18" s="7" t="inlineStr">
+      <c r="B18" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C18" s="7" t="inlineStr">
+      <c r="C18" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D18" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E18" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F18" s="7" t="inlineStr">
+      <c r="D18" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E18" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F18" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G18" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H18" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I18" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J18" s="7" t="inlineStr">
+      <c r="G18" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I18" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J18" s="8" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="K18" s="7" t="inlineStr">
-        <is>
-          <t>TW9341016</t>
-        </is>
-      </c>
-      <c r="L18" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M18" s="7" t="n">
+      <c r="K18" s="8" t="inlineStr">
+        <is>
+          <t>TW3540016</t>
+        </is>
+      </c>
+      <c r="L18" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M18" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N18" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O18" s="7" t="inlineStr">
+      <c r="N18" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O18" s="8" t="inlineStr">
         <is>
           <t>ABC16</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr">
+      <c r="P18" s="8" t="inlineStr"/>
+      <c r="Q18" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:42</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
-      <c r="T18" t="inlineStr"/>
+      <c r="R18" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:34</t>
+        </is>
+      </c>
+      <c r="S18" s="8" t="inlineStr"/>
+      <c r="T18" s="8" t="inlineStr"/>
       <c r="U18" t="inlineStr"/>
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
@@ -3133,88 +3129,88 @@
       <c r="BA18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="5" t="inlineStr">
+      <c r="A19" s="6" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="B19" s="7" t="inlineStr">
+      <c r="B19" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C19" s="7" t="inlineStr">
+      <c r="C19" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D19" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E19" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F19" s="7" t="inlineStr">
+      <c r="D19" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E19" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F19" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G19" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H19" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I19" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J19" s="7" t="inlineStr">
+      <c r="G19" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I19" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J19" s="8" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="K19" s="7" t="inlineStr">
-        <is>
-          <t>TW9341017</t>
-        </is>
-      </c>
-      <c r="L19" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M19" s="7" t="n">
+      <c r="K19" s="8" t="inlineStr">
+        <is>
+          <t>TW3540017</t>
+        </is>
+      </c>
+      <c r="L19" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M19" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N19" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O19" s="7" t="inlineStr">
+      <c r="N19" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O19" s="8" t="inlineStr">
         <is>
           <t>ABC17</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr">
+      <c r="P19" s="8" t="inlineStr"/>
+      <c r="Q19" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:44</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr"/>
-      <c r="T19" t="inlineStr"/>
+      <c r="R19" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:34</t>
+        </is>
+      </c>
+      <c r="S19" s="8" t="inlineStr"/>
+      <c r="T19" s="8" t="inlineStr"/>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
@@ -3250,88 +3246,88 @@
       <c r="BA19" t="inlineStr"/>
     </row>
     <row r="20">
-      <c r="A20" s="5" t="inlineStr">
+      <c r="A20" s="6" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="B20" s="7" t="inlineStr">
+      <c r="B20" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C20" s="7" t="inlineStr">
+      <c r="C20" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D20" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E20" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F20" s="7" t="inlineStr">
+      <c r="D20" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E20" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F20" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G20" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H20" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I20" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J20" s="7" t="inlineStr">
+      <c r="G20" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I20" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J20" s="8" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="K20" s="7" t="inlineStr">
-        <is>
-          <t>TW9341018</t>
-        </is>
-      </c>
-      <c r="L20" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M20" s="7" t="n">
+      <c r="K20" s="8" t="inlineStr">
+        <is>
+          <t>TW3540018</t>
+        </is>
+      </c>
+      <c r="L20" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M20" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N20" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O20" s="7" t="inlineStr">
+      <c r="N20" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O20" s="8" t="inlineStr">
         <is>
           <t>ABC18</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr">
+      <c r="P20" s="8" t="inlineStr"/>
+      <c r="Q20" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:45</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
-      <c r="T20" t="inlineStr"/>
+      <c r="R20" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:34</t>
+        </is>
+      </c>
+      <c r="S20" s="8" t="inlineStr"/>
+      <c r="T20" s="8" t="inlineStr"/>
       <c r="U20" t="inlineStr"/>
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
@@ -3367,88 +3363,88 @@
       <c r="BA20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="5" t="inlineStr">
+      <c r="A21" s="6" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="B21" s="7" t="inlineStr">
+      <c r="B21" s="8" t="inlineStr">
         <is>
           <t>保税</t>
         </is>
       </c>
-      <c r="C21" s="7" t="inlineStr">
+      <c r="C21" s="8" t="inlineStr">
         <is>
           <t>BJ105</t>
         </is>
       </c>
-      <c r="D21" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E21" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F21" s="7" t="inlineStr">
+      <c r="D21" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F1</t>
+        </is>
+      </c>
+      <c r="E21" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P</t>
+        </is>
+      </c>
+      <c r="F21" s="8" t="inlineStr">
         <is>
           <t>19003</t>
         </is>
       </c>
-      <c r="G21" s="7" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H21" s="7" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I21" s="7" t="inlineStr">
-        <is>
-          <t>TW93410</t>
-        </is>
-      </c>
-      <c r="J21" s="7" t="inlineStr">
+      <c r="G21" s="8" t="inlineStr">
+        <is>
+          <t>XBJ10502B</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr">
+        <is>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
+        </is>
+      </c>
+      <c r="I21" s="8" t="inlineStr">
+        <is>
+          <t>TW35400</t>
+        </is>
+      </c>
+      <c r="J21" s="8" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="K21" s="7" t="inlineStr">
-        <is>
-          <t>TW9341019</t>
-        </is>
-      </c>
-      <c r="L21" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M21" s="7" t="n">
+      <c r="K21" s="8" t="inlineStr">
+        <is>
+          <t>TW3540019</t>
+        </is>
+      </c>
+      <c r="L21" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="M21" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="7" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O21" s="7" t="inlineStr">
+      <c r="N21" s="8" t="n">
+        <v>12300</v>
+      </c>
+      <c r="O21" s="8" t="inlineStr">
         <is>
           <t>ABC19</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr">
+      <c r="P21" s="8" t="inlineStr"/>
+      <c r="Q21" s="8" t="inlineStr">
         <is>
           <t>15918</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:47</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr"/>
-      <c r="T21" t="inlineStr"/>
+      <c r="R21" s="8" t="inlineStr">
+        <is>
+          <t>2020-07-26 01:21:35</t>
+        </is>
+      </c>
+      <c r="S21" s="8" t="inlineStr"/>
+      <c r="T21" s="8" t="inlineStr"/>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
@@ -3501,12 +3497,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SCT2330E1</t>
+          <t>SCT2320F1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SCT2330E13P</t>
+          <t>SCT2320F13P</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -3516,17 +3512,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>XBJ10503B</t>
+          <t>XBJ10502B</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TW93410</t>
+          <t>TW35400</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -3536,17 +3532,17 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>TW9341020</t>
+          <t>TW3540020</t>
         </is>
       </c>
       <c r="L22" t="n">
-        <v>9672</v>
+        <v>12300</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>9672</v>
+        <v>12300</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -3561,7 +3557,7 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>2020-07-26 01:07:48</t>
+          <t>2020-07-26 01:21:35</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -3618,12 +3614,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SCT2330E1</t>
+          <t>SCT2320F1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SCT2330E13P</t>
+          <t>SCT2320F13P</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -3633,17 +3629,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>XBJ10503B</t>
+          <t>XBJ10502B</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TW93410</t>
+          <t>TW35400</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -3653,17 +3649,17 @@
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>TW9341021</t>
+          <t>TW3540021</t>
         </is>
       </c>
       <c r="L23" t="n">
-        <v>9672</v>
+        <v>12300</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>9672</v>
+        <v>12300</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -3678,7 +3674,7 @@
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>2020-07-26 01:07:50</t>
+          <t>2020-07-26 01:21:35</t>
         </is>
       </c>
       <c r="S23" t="inlineStr"/>
@@ -3735,12 +3731,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SCT2330E1</t>
+          <t>SCT2320F1</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SCT2330E13P</t>
+          <t>SCT2320F13P</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3750,17 +3746,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>XBJ10503B</t>
+          <t>XBJ10502B</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TW93410</t>
+          <t>TW35400</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
@@ -3770,17 +3766,17 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>TW9341022</t>
+          <t>TW3540022</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>9672</v>
+        <v>12300</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>9672</v>
+        <v>12300</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -3795,7 +3791,7 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>2020-07-26 01:07:52</t>
+          <t>2020-07-26 01:21:36</t>
         </is>
       </c>
       <c r="S24" t="inlineStr"/>
@@ -3852,12 +3848,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SCT2330E1</t>
+          <t>SCT2320F1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SCT2330E13P</t>
+          <t>SCT2320F13P</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3867,17 +3863,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>XBJ10503B</t>
+          <t>XBJ10502B</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TW93410</t>
+          <t>TW35400</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -3887,17 +3883,17 @@
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>TW9341023</t>
+          <t>TW3540023</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>9672</v>
+        <v>12300</v>
       </c>
       <c r="M25" t="n">
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>9672</v>
+        <v>12300</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -3912,7 +3908,7 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>2020-07-26 01:07:53</t>
+          <t>2020-07-26 01:21:36</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -3969,12 +3965,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SCT2330E1</t>
+          <t>SCT2320F1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SCT2330E13P</t>
+          <t>SCT2320F13P</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3984,17 +3980,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>XBJ10503B</t>
+          <t>XBJ10502B</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TW93410</t>
+          <t>TW35400</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
@@ -4004,17 +4000,17 @@
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>TW9341024</t>
+          <t>TW3540024</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>9672</v>
+        <v>12300</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>9672</v>
+        <v>12300</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -4029,7 +4025,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>2020-07-26 01:07:55</t>
+          <t>2020-07-26 01:21:36</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -4086,12 +4082,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SCT2330E1</t>
+          <t>SCT2320F1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SCT2330E13P</t>
+          <t>SCT2320F13P</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -4101,17 +4097,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>XBJ10503B</t>
+          <t>XBJ10502B</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
+          <t>SCT2320F13P_20200709_Bump_Prod</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TW93410</t>
+          <t>TW35400</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -4121,17 +4117,17 @@
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>TW9341025</t>
+          <t>TW3540025</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>9672</v>
+        <v>12300</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>9672</v>
+        <v>12300</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -4146,7 +4142,7 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>2020-07-26 01:07:19</t>
+          <t>2020-07-26 01:21:28</t>
         </is>
       </c>
       <c r="S27" t="inlineStr"/>
@@ -4186,86 +4182,24 @@
       <c r="BA27" t="inlineStr"/>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>保税</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>19003</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>TW93420</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>TW9342001</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>ABC01</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
       <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>15918</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:56</t>
-        </is>
-      </c>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
       <c r="S28" t="inlineStr"/>
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr"/>
@@ -4303,86 +4237,24 @@
       <c r="BA28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>保税</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>SCT2330E1</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>SCT2330E13P</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>19003</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>XBJ10503B</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>SCT2330E13P_20200520_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>TW93420</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>TW9342002</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>9672</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>9672</v>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>ABC02</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
       <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>15918</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>2020-07-26 01:07:59</t>
-        </is>
-      </c>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>

--- a/已上传订单.xlsx
+++ b/已上传订单.xlsx
@@ -1135,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -1243,167 +1243,51 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TW55040</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>84375</v>
+        <v>39625</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>非保税</t>
+          <t>保税</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>15918</t>
+          <t>07885</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
-        <is>
-          <t>2020-07-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>TW55041</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>16</v>
-      </c>
-      <c r="I4" t="n">
-        <v>450000</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>非保税</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>15918</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>2020-07-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>25</v>
-      </c>
-      <c r="I5" t="n">
-        <v>703125</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>非保税</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>15918</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
         <is>
           <t>2020-07-27</t>
         </is>
@@ -1423,7 +1307,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AC27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -1542,32 +1426,32 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>TW55040</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
@@ -1577,23 +1461,19 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>TW5504001</t>
+          <t>TW2J619.0001</t>
         </is>
       </c>
       <c r="J3" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="10" t="inlineStr">
-        <is>
-          <t>ABC01</t>
-        </is>
-      </c>
+      <c r="M3" s="10" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
       <c r="P3" t="inlineStr"/>
@@ -1619,32 +1499,32 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>TW55040</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
@@ -1654,23 +1534,19 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>TW5504002</t>
+          <t>TW2J619.0002</t>
         </is>
       </c>
       <c r="J4" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M4" s="10" t="inlineStr">
-        <is>
-          <t>ABC02</t>
-        </is>
-      </c>
+      <c r="M4" s="10" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
       <c r="P4" t="inlineStr"/>
@@ -1696,32 +1572,32 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>TW55040</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
@@ -1731,23 +1607,19 @@
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>TW5504003</t>
+          <t>TW2J619.0003</t>
         </is>
       </c>
       <c r="J5" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M5" s="10" t="inlineStr">
-        <is>
-          <t>ABC03</t>
-        </is>
-      </c>
+      <c r="M5" s="10" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
       <c r="P5" t="inlineStr"/>
@@ -1773,58 +1645,54 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>TW5504110</t>
+          <t>TW2J619.0004</t>
         </is>
       </c>
       <c r="J6" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M6" s="10" t="inlineStr">
-        <is>
-          <t>ABC10</t>
-        </is>
-      </c>
+      <c r="M6" s="10" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
       <c r="P6" t="inlineStr"/>
@@ -1850,58 +1718,54 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>05</t>
         </is>
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>TW5504111</t>
+          <t>TW2J619.0005</t>
         </is>
       </c>
       <c r="J7" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M7" s="10" t="inlineStr">
-        <is>
-          <t>ABC11</t>
-        </is>
-      </c>
+      <c r="M7" s="10" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
       <c r="P7" t="inlineStr"/>
@@ -1927,58 +1791,54 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>TW5504112</t>
+          <t>TW2J619.0006</t>
         </is>
       </c>
       <c r="J8" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M8" s="10" t="inlineStr">
-        <is>
-          <t>ABC12</t>
-        </is>
-      </c>
+      <c r="M8" s="10" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
@@ -2004,58 +1864,54 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>TW5504113</t>
+          <t>TW2J619.0007</t>
         </is>
       </c>
       <c r="J9" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M9" s="10" t="inlineStr">
-        <is>
-          <t>ABC13</t>
-        </is>
-      </c>
+      <c r="M9" s="10" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
       <c r="P9" t="inlineStr"/>
@@ -2081,58 +1937,54 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>TW5504114</t>
+          <t>TW2J619.0008</t>
         </is>
       </c>
       <c r="J10" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M10" s="10" t="inlineStr">
-        <is>
-          <t>ABC14</t>
-        </is>
-      </c>
+      <c r="M10" s="10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
       <c r="P10" t="inlineStr"/>
@@ -2158,58 +2010,54 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>09</t>
         </is>
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>TW5504115</t>
+          <t>TW2J619.0009</t>
         </is>
       </c>
       <c r="J11" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M11" s="10" t="inlineStr">
-        <is>
-          <t>ABC15</t>
-        </is>
-      </c>
+      <c r="M11" s="10" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
       <c r="P11" t="inlineStr"/>
@@ -2235,58 +2083,54 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>TW5504116</t>
+          <t>TW2J619.0010</t>
         </is>
       </c>
       <c r="J12" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M12" s="10" t="inlineStr">
-        <is>
-          <t>ABC16</t>
-        </is>
-      </c>
+      <c r="M12" s="10" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
       <c r="P12" t="inlineStr"/>
@@ -2312,58 +2156,54 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>TW5504117</t>
+          <t>TW2J619.0011</t>
         </is>
       </c>
       <c r="J13" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M13" s="10" t="inlineStr">
-        <is>
-          <t>ABC17</t>
-        </is>
-      </c>
+      <c r="M13" s="10" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
       <c r="P13" t="inlineStr"/>
@@ -2389,58 +2229,54 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>TW5504118</t>
+          <t>TW2J619.0012</t>
         </is>
       </c>
       <c r="J14" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M14" s="10" t="inlineStr">
-        <is>
-          <t>ABC18</t>
-        </is>
-      </c>
+      <c r="M14" s="10" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
       <c r="P14" t="inlineStr"/>
@@ -2466,58 +2302,54 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>TW5504119</t>
+          <t>TW2J619.0013</t>
         </is>
       </c>
       <c r="J15" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M15" s="10" t="inlineStr">
-        <is>
-          <t>ABC19</t>
-        </is>
-      </c>
+      <c r="M15" s="10" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
@@ -2543,58 +2375,54 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>TW5504120</t>
+          <t>TW2J619.0014</t>
         </is>
       </c>
       <c r="J16" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M16" s="10" t="inlineStr">
-        <is>
-          <t>ABC20</t>
-        </is>
-      </c>
+      <c r="M16" s="10" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
@@ -2620,58 +2448,54 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>TW5504121</t>
+          <t>TW2J619.0015</t>
         </is>
       </c>
       <c r="J17" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M17" s="10" t="inlineStr">
-        <is>
-          <t>ABC21</t>
-        </is>
-      </c>
+      <c r="M17" s="10" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
@@ -2697,58 +2521,54 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>TW5504122</t>
+          <t>TW2J619.0016</t>
         </is>
       </c>
       <c r="J18" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M18" s="10" t="inlineStr">
-        <is>
-          <t>ABC22</t>
-        </is>
-      </c>
+      <c r="M18" s="10" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
@@ -2774,58 +2594,54 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>TW5504123</t>
+          <t>TW2J619.0017</t>
         </is>
       </c>
       <c r="J19" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M19" s="10" t="inlineStr">
-        <is>
-          <t>ABC23</t>
-        </is>
-      </c>
+      <c r="M19" s="10" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
@@ -2851,58 +2667,54 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>TW5504124</t>
+          <t>TW2J619.0018</t>
         </is>
       </c>
       <c r="J20" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M20" s="10" t="inlineStr">
-        <is>
-          <t>ABC24</t>
-        </is>
-      </c>
+      <c r="M20" s="10" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
@@ -2928,58 +2740,54 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>TW5504125</t>
+          <t>TW2J619.0019</t>
         </is>
       </c>
       <c r="J21" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="M21" s="10" t="inlineStr">
-        <is>
-          <t>ABC25</t>
-        </is>
-      </c>
+      <c r="M21" s="10" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
@@ -3005,58 +2813,54 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TW5504201</t>
+          <t>TW2J619.0020</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K22" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>ABC01</t>
-        </is>
-      </c>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
       <c r="P22" t="inlineStr"/>
@@ -3082,58 +2886,54 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TW5504202</t>
+          <t>TW2J619.0021</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K23" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>ABC02</t>
-        </is>
-      </c>
+      <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
@@ -3159,58 +2959,54 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TW5504203</t>
+          <t>TW2J619.0022</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K24" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>ABC03</t>
-        </is>
-      </c>
+      <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
       <c r="P24" t="inlineStr"/>
@@ -3236,58 +3032,54 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TW5504204</t>
+          <t>TW2J619.0023</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K25" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>ABC04</t>
-        </is>
-      </c>
+      <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
       <c r="P25" t="inlineStr"/>
@@ -3313,58 +3105,54 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TW5504205</t>
+          <t>TW2J619.0024</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K26" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>ABC05</t>
-        </is>
-      </c>
+      <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
       <c r="P26" t="inlineStr"/>
@@ -3390,58 +3178,54 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6105403</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>SG005</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENAX-TO</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>OS05A20-ENA-TO</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>YUS02605M</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TW2J619.00</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TW5504206</t>
+          <t>TW2J619.0025</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="K27" t="n">
-        <v>28125</v>
+        <v>1585</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>ABC06</t>
-        </is>
-      </c>
+      <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
@@ -3459,1469 +3243,6 @@
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>TW5504207</t>
-        </is>
-      </c>
-      <c r="J28" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K28" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>ABC07</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>TW5504208</t>
-        </is>
-      </c>
-      <c r="J29" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K29" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>ABC08</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>TW5504209</t>
-        </is>
-      </c>
-      <c r="J30" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K30" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>ABC09</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>TW5504210</t>
-        </is>
-      </c>
-      <c r="J31" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K31" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>ABC10</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>TW5504211</t>
-        </is>
-      </c>
-      <c r="J32" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K32" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>ABC11</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>TW5504212</t>
-        </is>
-      </c>
-      <c r="J33" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K33" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>ABC12</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>TW5504213</t>
-        </is>
-      </c>
-      <c r="J34" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K34" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>ABC13</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>TW5504214</t>
-        </is>
-      </c>
-      <c r="J35" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K35" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>ABC14</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>TW5504215</t>
-        </is>
-      </c>
-      <c r="J36" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K36" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>ABC15</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>TW5504216</t>
-        </is>
-      </c>
-      <c r="J37" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K37" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>ABC16</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>TW5504217</t>
-        </is>
-      </c>
-      <c r="J38" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K38" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>ABC17</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="I39" t="inlineStr">
-        <is>
-          <t>TW5504218</t>
-        </is>
-      </c>
-      <c r="J39" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K39" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>ABC18</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="I40" t="inlineStr">
-        <is>
-          <t>TW5504219</t>
-        </is>
-      </c>
-      <c r="J40" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K40" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>ABC19</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
-        <is>
-          <t>TW5504220</t>
-        </is>
-      </c>
-      <c r="J41" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K41" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>ABC20</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>TW5504221</t>
-        </is>
-      </c>
-      <c r="J42" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K42" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>ABC21</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>TW5504222</t>
-        </is>
-      </c>
-      <c r="J43" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K43" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="inlineStr">
-        <is>
-          <t>ABC22</t>
-        </is>
-      </c>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>TW5504223</t>
-        </is>
-      </c>
-      <c r="J44" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K44" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>ABC23</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>TW5504224</t>
-        </is>
-      </c>
-      <c r="J45" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K45" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>ABC24</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>TW5504225</t>
-        </is>
-      </c>
-      <c r="J46" t="n">
-        <v>28125</v>
-      </c>
-      <c r="K46" t="n">
-        <v>28125</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="inlineStr">
-        <is>
-          <t>ABC25</t>
-        </is>
-      </c>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>

--- a/已上传订单.xlsx
+++ b/已上传订单.xlsx
@@ -1279,7 +1279,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>保税</t>
+          <t>非保税</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">

--- a/已上传订单.xlsx
+++ b/已上传订单.xlsx
@@ -1135,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -1243,43 +1243,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>39625</v>
+        <v>357125</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>非保税</t>
+          <t>保税</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1288,6 +1288,122 @@
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>25</v>
+      </c>
+      <c r="I4" t="n">
+        <v>357125</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>保税</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>07885</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2020-07-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>24</v>
+      </c>
+      <c r="I5" t="n">
+        <v>342840</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>保税</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>07885</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>2020-07-27</t>
         </is>
@@ -1307,7 +1423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AC76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -1426,32 +1542,32 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
@@ -1461,14 +1577,14 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0001</t>
+          <t>TW80083.801</t>
         </is>
       </c>
       <c r="J3" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>0</v>
@@ -1499,32 +1615,32 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
@@ -1534,14 +1650,14 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0002</t>
+          <t>TW80083.802</t>
         </is>
       </c>
       <c r="J4" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0</v>
@@ -1572,32 +1688,32 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
@@ -1607,14 +1723,14 @@
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0003</t>
+          <t>TW80083.803</t>
         </is>
       </c>
       <c r="J5" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
@@ -1645,32 +1761,32 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
@@ -1680,14 +1796,14 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0004</t>
+          <t>TW80083.804</t>
         </is>
       </c>
       <c r="J6" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>0</v>
@@ -1718,32 +1834,32 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H7" s="0" t="inlineStr">
@@ -1753,14 +1869,14 @@
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0005</t>
+          <t>TW80083.805</t>
         </is>
       </c>
       <c r="J7" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>0</v>
@@ -1791,32 +1907,32 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
@@ -1826,14 +1942,14 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0006</t>
+          <t>TW80083.806</t>
         </is>
       </c>
       <c r="J8" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>0</v>
@@ -1864,32 +1980,32 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
@@ -1899,14 +2015,14 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0007</t>
+          <t>TW80083.807</t>
         </is>
       </c>
       <c r="J9" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>0</v>
@@ -1937,32 +2053,32 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H10" s="0" t="inlineStr">
@@ -1972,14 +2088,14 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0008</t>
+          <t>TW80083.808</t>
         </is>
       </c>
       <c r="J10" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>0</v>
@@ -2010,32 +2126,32 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
@@ -2045,14 +2161,14 @@
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0009</t>
+          <t>TW80083.809</t>
         </is>
       </c>
       <c r="J11" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>0</v>
@@ -2083,32 +2199,32 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H12" s="0" t="inlineStr">
@@ -2118,14 +2234,14 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0010</t>
+          <t>TW80083.810</t>
         </is>
       </c>
       <c r="J12" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>0</v>
@@ -2156,32 +2272,32 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H13" s="0" t="inlineStr">
@@ -2191,14 +2307,14 @@
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0011</t>
+          <t>TW80083.811</t>
         </is>
       </c>
       <c r="J13" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>0</v>
@@ -2229,32 +2345,32 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H14" s="0" t="inlineStr">
@@ -2264,14 +2380,14 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0012</t>
+          <t>TW80083.812</t>
         </is>
       </c>
       <c r="J14" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>0</v>
@@ -2302,32 +2418,32 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
@@ -2337,14 +2453,14 @@
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0013</t>
+          <t>TW80083.813</t>
         </is>
       </c>
       <c r="J15" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>0</v>
@@ -2375,32 +2491,32 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
@@ -2410,14 +2526,14 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0014</t>
+          <t>TW80083.814</t>
         </is>
       </c>
       <c r="J16" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>0</v>
@@ -2448,32 +2564,32 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
@@ -2483,14 +2599,14 @@
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0015</t>
+          <t>TW80083.815</t>
         </is>
       </c>
       <c r="J17" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>0</v>
@@ -2521,32 +2637,32 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
@@ -2556,14 +2672,14 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0016</t>
+          <t>TW80083.816</t>
         </is>
       </c>
       <c r="J18" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>0</v>
@@ -2594,32 +2710,32 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H19" s="0" t="inlineStr">
@@ -2629,14 +2745,14 @@
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0017</t>
+          <t>TW80083.817</t>
         </is>
       </c>
       <c r="J19" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>0</v>
@@ -2667,32 +2783,32 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
@@ -2702,14 +2818,14 @@
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0018</t>
+          <t>TW80083.818</t>
         </is>
       </c>
       <c r="J20" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>0</v>
@@ -2740,32 +2856,32 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
@@ -2775,14 +2891,14 @@
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>TW2J619.0019</t>
+          <t>TW80083.819</t>
         </is>
       </c>
       <c r="J21" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>0</v>
@@ -2813,32 +2929,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2848,14 +2964,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TW2J619.0020</t>
+          <t>TW80083.820</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K22" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2886,32 +3002,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2921,14 +3037,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TW2J619.0021</t>
+          <t>TW80083.821</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K23" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2959,32 +3075,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2994,14 +3110,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TW2J619.0022</t>
+          <t>TW80083.822</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K24" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3032,32 +3148,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3067,14 +3183,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TW2J619.0023</t>
+          <t>TW80083.823</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K25" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3105,32 +3221,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3140,14 +3256,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TW2J619.0024</t>
+          <t>TW80083.824</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K26" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3178,32 +3294,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6105403</t>
+          <t>GULF20034KS</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SG005</t>
+          <t>HK006</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>OS05A20-ENAX-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>OS05A20-ENA-TO</t>
+          <t>GSC3645CR2</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>YUS02605M</t>
+          <t>X68045B</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>TW2J619.00</t>
+          <t>TW80083.8</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3213,14 +3329,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TW2J619.0025</t>
+          <t>TW80083.825</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="K27" t="n">
-        <v>1585</v>
+        <v>14285</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -3243,6 +3359,3583 @@
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>TW80084.801</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K28" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TW80084.802</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K29" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>TW80084.803</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K30" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>TW80084.804</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K31" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TW80084.805</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K32" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>TW80084.806</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K33" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TW80084.807</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K34" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TW80084.808</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K35" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TW80084.809</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K36" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TW80084.810</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K37" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>TW80084.811</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K38" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>TW80084.812</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K39" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>TW80084.813</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K40" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TW80084.814</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K41" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TW80084.815</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K42" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TW80084.816</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K43" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>TW80084.817</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K44" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TW80084.818</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K45" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TW80084.819</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K46" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TW80084.820</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K47" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>TW80084.821</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K48" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>TW80084.822</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K49" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>TW80084.823</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K50" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>TW80084.824</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K51" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>TW80084.8</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>TW80084.825</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K52" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TW80085.801</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K53" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>TW80085.802</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K54" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>TW80085.803</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K55" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>TW80085.804</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K56" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>TW80085.805</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K57" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>TW80085.806</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K58" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>TW80085.807</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K59" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>TW80085.808</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K60" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>TW80085.809</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K61" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>TW80085.810</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K62" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>TW80085.811</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K63" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>TW80085.812</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K64" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>TW80085.813</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K65" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>TW80085.814</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K66" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>TW80085.815</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K67" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>TW80085.816</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K68" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>TW80085.817</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K69" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>TW80085.818</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K70" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>TW80085.819</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K71" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>TW80085.820</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K72" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>TW80085.821</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K73" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>TW80085.823</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K74" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>TW80085.824</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K75" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>GULF20034KS</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>HK006</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>GSC3645CR2</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>X68045B</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>TW80085.8</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>TW80085.825</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>14285</v>
+      </c>
+      <c r="K76" t="n">
+        <v>14285</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>

--- a/已上传订单.xlsx
+++ b/已上传订单.xlsx
@@ -1135,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1253,33 +1253,33 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>703125</v>
+        <v>847900</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>保税</t>
+          <t>非保税</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1288,6 +1288,122 @@
         </is>
       </c>
       <c r="L3" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>50</v>
+      </c>
+      <c r="I4" t="n">
+        <v>1695800</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>07885</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>50</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1695800</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>07885</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>2020-07-28</t>
         </is>
@@ -1307,7 +1423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AC77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -1426,7 +1542,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
@@ -1436,22 +1552,22 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
@@ -1461,14 +1577,14 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>TW0900001</t>
+          <t>TW10800001</t>
         </is>
       </c>
       <c r="J3" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>0</v>
@@ -1499,7 +1615,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
@@ -1509,22 +1625,22 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
@@ -1534,14 +1650,14 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>TW0900002</t>
+          <t>TW10800002</t>
         </is>
       </c>
       <c r="J4" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0</v>
@@ -1572,7 +1688,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
@@ -1582,22 +1698,22 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
@@ -1607,14 +1723,14 @@
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>TW0900003</t>
+          <t>TW10800003</t>
         </is>
       </c>
       <c r="J5" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
@@ -1645,7 +1761,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -1655,22 +1771,22 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
@@ -1680,14 +1796,14 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>TW0900004</t>
+          <t>TW10800004</t>
         </is>
       </c>
       <c r="J6" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>0</v>
@@ -1718,7 +1834,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -1728,22 +1844,22 @@
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H7" s="0" t="inlineStr">
@@ -1753,14 +1869,14 @@
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>TW0900005</t>
+          <t>TW10800005</t>
         </is>
       </c>
       <c r="J7" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>0</v>
@@ -1791,7 +1907,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
@@ -1801,22 +1917,22 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
@@ -1826,14 +1942,14 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>TW0900006</t>
+          <t>TW10800006</t>
         </is>
       </c>
       <c r="J8" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>0</v>
@@ -1864,7 +1980,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -1874,22 +1990,22 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
@@ -1899,14 +2015,14 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>TW0900007</t>
+          <t>TW10800007</t>
         </is>
       </c>
       <c r="J9" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>0</v>
@@ -1937,7 +2053,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -1947,22 +2063,22 @@
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H10" s="0" t="inlineStr">
@@ -1972,14 +2088,14 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>TW0900008</t>
+          <t>TW10800008</t>
         </is>
       </c>
       <c r="J10" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>0</v>
@@ -2010,7 +2126,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -2020,22 +2136,22 @@
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
@@ -2045,14 +2161,14 @@
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>TW0900009</t>
+          <t>TW10800009</t>
         </is>
       </c>
       <c r="J11" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>0</v>
@@ -2083,7 +2199,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -2093,22 +2209,22 @@
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H12" s="0" t="inlineStr">
@@ -2118,14 +2234,14 @@
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>TW0900010</t>
+          <t>TW10800010</t>
         </is>
       </c>
       <c r="J12" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>0</v>
@@ -2156,7 +2272,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -2166,22 +2282,22 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H13" s="0" t="inlineStr">
@@ -2191,14 +2307,14 @@
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>TW0900011</t>
+          <t>TW10800011</t>
         </is>
       </c>
       <c r="J13" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>0</v>
@@ -2229,7 +2345,7 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -2239,22 +2355,22 @@
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H14" s="0" t="inlineStr">
@@ -2264,14 +2380,14 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>TW0900012</t>
+          <t>TW10800012</t>
         </is>
       </c>
       <c r="J14" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>0</v>
@@ -2302,7 +2418,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -2312,22 +2428,22 @@
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
@@ -2337,14 +2453,14 @@
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>TW0900013</t>
+          <t>TW10800013</t>
         </is>
       </c>
       <c r="J15" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>0</v>
@@ -2375,7 +2491,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -2385,22 +2501,22 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
@@ -2410,14 +2526,14 @@
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>TW0900014</t>
+          <t>TW10800014</t>
         </is>
       </c>
       <c r="J16" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>0</v>
@@ -2448,7 +2564,7 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -2458,22 +2574,22 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
@@ -2483,14 +2599,14 @@
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>TW0900015</t>
+          <t>TW10800015</t>
         </is>
       </c>
       <c r="J17" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>0</v>
@@ -2521,7 +2637,7 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -2531,22 +2647,22 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
@@ -2556,14 +2672,14 @@
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>TW0900016</t>
+          <t>TW10800016</t>
         </is>
       </c>
       <c r="J18" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>0</v>
@@ -2594,7 +2710,7 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -2604,22 +2720,22 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H19" s="0" t="inlineStr">
@@ -2629,14 +2745,14 @@
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>TW0900017</t>
+          <t>TW10800017</t>
         </is>
       </c>
       <c r="J19" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>0</v>
@@ -2667,7 +2783,7 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -2677,22 +2793,22 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
@@ -2702,14 +2818,14 @@
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>TW0900018</t>
+          <t>TW10800018</t>
         </is>
       </c>
       <c r="J20" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>0</v>
@@ -2740,7 +2856,7 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -2750,22 +2866,22 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
@@ -2775,14 +2891,14 @@
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>TW0900019</t>
+          <t>TW10800019</t>
         </is>
       </c>
       <c r="J21" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>0</v>
@@ -2813,7 +2929,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2823,22 +2939,22 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
@@ -2848,14 +2964,14 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TW0900020</t>
+          <t>TW10800020</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K22" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2886,7 +3002,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2896,22 +3012,22 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
@@ -2921,14 +3037,14 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TW0900021</t>
+          <t>TW10800021</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K23" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2959,7 +3075,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2969,22 +3085,22 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
@@ -2994,14 +3110,14 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TW0900022</t>
+          <t>TW10800022</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K24" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3032,7 +3148,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3042,22 +3158,22 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
@@ -3067,14 +3183,14 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TW0900023</t>
+          <t>TW10800023</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K25" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3105,7 +3221,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3115,22 +3231,22 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
@@ -3140,14 +3256,14 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TW0900024</t>
+          <t>TW10800024</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K26" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3178,7 +3294,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>4200105271</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3188,22 +3304,22 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>AD08070463F0</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XAA08020B</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW108000</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
@@ -3213,14 +3329,14 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TW0900025</t>
+          <t>TW10800025</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="K27" t="n">
-        <v>28125</v>
+        <v>33916</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -3243,6 +3359,3656 @@
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>TWK310450001</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K28" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TWK310450002</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K29" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>TWK310450003</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K30" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>TWK310450004</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K31" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TWK310450005</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K32" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>TWK310450006</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K33" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TWK310450007</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K34" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TWK310450008</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K35" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TWK310450009</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K36" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TWK310450010</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K37" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>TWK310450011</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K38" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>TWK310450012</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K39" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>TWK310450013</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K40" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TWK310450014</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K41" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TWK310450015</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K42" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TWK310450016</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K43" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>TWK310450017</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K44" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TWK310450018</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K45" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TWK310450019</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K46" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TWK310450020</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K47" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>TWK310450021</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K48" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>TWK310450022</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K49" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>TWK310450023</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K50" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>TWK310450024</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K51" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>TWK3104500</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>TWK310450025</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K52" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>TWK310460001</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K53" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>TWK310460002</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K54" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>TWK310460003</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K55" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>TWK310460004</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K56" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>TWK310460005</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K57" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>TWK310460006</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K58" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>TWK310460007</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K59" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>TWK310460008</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K60" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>TWK310460009</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K61" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>TWK310460010</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K62" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>TWK310460011</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K63" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>TWK310460012</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K64" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>TWK310460013</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K65" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>TWK310460014</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K66" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>TWK310460015</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K67" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>TWK310460016</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K68" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>TWK310460017</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K69" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>TWK310460018</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K70" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>TWK310460019</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K71" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>TWK310460020</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K72" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>TWK310460021</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K73" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>TWK310460022</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K74" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>TWK310460023</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K75" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>TWK310460024</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K76" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>4200105269</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>AA08</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>AP62200WU-7-02</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>A0463B0</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>XAA08004FC</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>TWK3104600</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>TWK310460025</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>33916</v>
+      </c>
+      <c r="K77" t="n">
+        <v>33916</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>

--- a/已上传订单.xlsx
+++ b/已上传订单.xlsx
@@ -1135,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -1243,51 +1243,167 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H3" t="n">
+        <v>19</v>
+      </c>
+      <c r="I3" t="n">
+        <v>62814</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>07885</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>TW5C30</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6696</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>07885</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>25</v>
       </c>
-      <c r="I3" t="n">
-        <v>703125</v>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I5" t="n">
+        <v>167400</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>非保税</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>07885</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>2020-07-28</t>
         </is>
@@ -1307,7 +1423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC27"/>
+  <dimension ref="A1:AC47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -1426,32 +1542,32 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
@@ -1461,14 +1577,14 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>TW0900001</t>
+          <t>TW361501</t>
         </is>
       </c>
       <c r="J3" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>0</v>
@@ -1499,32 +1615,32 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
@@ -1534,14 +1650,14 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>TW0900002</t>
+          <t>TW361502</t>
         </is>
       </c>
       <c r="J4" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0</v>
@@ -1572,32 +1688,32 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
@@ -1607,14 +1723,14 @@
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>TW0900003</t>
+          <t>TW361503</t>
         </is>
       </c>
       <c r="J5" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
@@ -1645,32 +1761,32 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
@@ -1680,14 +1796,14 @@
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>TW0900004</t>
+          <t>TW361504</t>
         </is>
       </c>
       <c r="J6" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>0</v>
@@ -1718,32 +1834,32 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H7" s="0" t="inlineStr">
@@ -1753,14 +1869,14 @@
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>TW0900005</t>
+          <t>TW361505</t>
         </is>
       </c>
       <c r="J7" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>0</v>
@@ -1791,32 +1907,32 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
@@ -1826,14 +1942,14 @@
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>TW0900006</t>
+          <t>TW361506</t>
         </is>
       </c>
       <c r="J8" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>0</v>
@@ -1864,32 +1980,32 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
@@ -1899,14 +2015,14 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>TW0900007</t>
+          <t>TW361507</t>
         </is>
       </c>
       <c r="J9" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>0</v>
@@ -1937,32 +2053,32 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H10" s="0" t="inlineStr">
@@ -1972,14 +2088,14 @@
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>TW0900008</t>
+          <t>TW361508</t>
         </is>
       </c>
       <c r="J10" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>0</v>
@@ -2010,32 +2126,32 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
@@ -2045,14 +2161,14 @@
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>TW0900009</t>
+          <t>TW361509</t>
         </is>
       </c>
       <c r="J11" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>0</v>
@@ -2083,49 +2199,49 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>TW0900010</t>
+          <t>TW361516</t>
         </is>
       </c>
       <c r="J12" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>0</v>
@@ -2156,49 +2272,49 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>TW0900011</t>
+          <t>TW361517</t>
         </is>
       </c>
       <c r="J13" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>0</v>
@@ -2229,49 +2345,49 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>TW0900012</t>
+          <t>TW361518</t>
         </is>
       </c>
       <c r="J14" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>0</v>
@@ -2302,49 +2418,49 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>TW0900013</t>
+          <t>TW361519</t>
         </is>
       </c>
       <c r="J15" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>0</v>
@@ -2375,49 +2491,49 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>TW0900014</t>
+          <t>TW361520</t>
         </is>
       </c>
       <c r="J16" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>0</v>
@@ -2448,49 +2564,49 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>TW0900015</t>
+          <t>TW361521</t>
         </is>
       </c>
       <c r="J17" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>0</v>
@@ -2521,49 +2637,49 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>TW0900016</t>
+          <t>TW361522</t>
         </is>
       </c>
       <c r="J18" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>0</v>
@@ -2594,49 +2710,49 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>TW0900017</t>
+          <t>TW361523</t>
         </is>
       </c>
       <c r="J19" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>0</v>
@@ -2667,49 +2783,49 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>TW0900018</t>
+          <t>TW361524</t>
         </is>
       </c>
       <c r="J20" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>0</v>
@@ -2740,49 +2856,49 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220002</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW3615</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>TW0900019</t>
+          <t>TW361525</t>
         </is>
       </c>
       <c r="J21" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>28125</v>
+        <v>3306</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>0</v>
@@ -2813,49 +2929,49 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI24-Q</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI24</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>GX151AM</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW5C30</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TW0900020</t>
+          <t>TW5C3002</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>28125</v>
+        <v>6696</v>
       </c>
       <c r="K22" t="n">
-        <v>28125</v>
+        <v>6696</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -2886,49 +3002,49 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI24-Q</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI24</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>GX151AM</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW5H27</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TW0900021</t>
+          <t>TW5H2701</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>28125</v>
+        <v>6696</v>
       </c>
       <c r="K23" t="n">
-        <v>28125</v>
+        <v>6696</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2959,49 +3075,49 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI24-Q</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI24</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>GX151AM</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW5H27</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TW0900022</t>
+          <t>TW5H2702</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>28125</v>
+        <v>6696</v>
       </c>
       <c r="K24" t="n">
-        <v>28125</v>
+        <v>6696</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3032,49 +3148,49 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI24-Q</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI24</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>GX151AM</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW5H27</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TW0900023</t>
+          <t>TW5H2703</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>28125</v>
+        <v>6696</v>
       </c>
       <c r="K25" t="n">
-        <v>28125</v>
+        <v>6696</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3105,49 +3221,49 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI24-Q</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI24</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>GX151AM</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW5H27</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TW0900024</t>
+          <t>TW5H2704</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>28125</v>
+        <v>6696</v>
       </c>
       <c r="K26" t="n">
-        <v>28125</v>
+        <v>6696</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3178,49 +3294,49 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4200105123</t>
+          <t>1510-2007220001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>AA08</t>
+          <t>SX</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI24-Q</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>AD08070464C0</t>
+          <t>SI24</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>XAA08008B</t>
+          <t>GX151AM</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>TW09000</t>
+          <t>TW5H27</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>05</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TW0900025</t>
+          <t>TW5H2705</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>28125</v>
+        <v>6696</v>
       </c>
       <c r="K27" t="n">
-        <v>28125</v>
+        <v>6696</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -3243,6 +3359,1466 @@
       <c r="AB27" t="inlineStr"/>
       <c r="AC27" t="inlineStr"/>
     </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>TW5H2706</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K28" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>TW5H2707</t>
+        </is>
+      </c>
+      <c r="J29" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K29" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>TW5H2708</t>
+        </is>
+      </c>
+      <c r="J30" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K30" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>TW5H2709</t>
+        </is>
+      </c>
+      <c r="J31" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K31" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>TW5H2710</t>
+        </is>
+      </c>
+      <c r="J32" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>TW5H2711</t>
+        </is>
+      </c>
+      <c r="J33" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K33" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>TW5H2712</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K34" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>TW5H2713</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>TW5H2714</t>
+        </is>
+      </c>
+      <c r="J36" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K36" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>TW5H2715</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K37" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>TW5H2716</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K38" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>TW5H2717</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K39" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>TW5H2718</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K40" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>TW5H2719</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K41" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>TW5H2720</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K42" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>TW5H2721</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K43" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>TW5H2722</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K44" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>TW5H2723</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K45" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>TW5H2724</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K46" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1510-2007220001</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>SI24-Q</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>SI24</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>GX151AM</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>TW5H27</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TW5H2725</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>6696</v>
+      </c>
+      <c r="K47" t="n">
+        <v>6696</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>

--- a/已上传订单.xlsx
+++ b/已上传订单.xlsx
@@ -1135,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1253,7 +1253,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-Q</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -1268,14 +1268,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="I3" t="n">
-        <v>62814</v>
+        <v>26448</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1311,29 +1311,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>TW5C30</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I4" t="n">
-        <v>6696</v>
+        <v>42978</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1369,29 +1369,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>25</v>
       </c>
       <c r="I5" t="n">
-        <v>167400</v>
+        <v>82650</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -1404,6 +1404,122 @@
         </is>
       </c>
       <c r="L5" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SI74V-Q</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>12</v>
+      </c>
+      <c r="I6" t="n">
+        <v>39672</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>07885</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>2020-07-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SI74V-QX</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>13</v>
+      </c>
+      <c r="I7" t="n">
+        <v>42978</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>07885</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>2020-07-28</t>
         </is>
@@ -1423,7 +1539,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC47"/>
+  <dimension ref="A1:AC73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -1542,7 +1658,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
@@ -1552,7 +1668,7 @@
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
@@ -1567,7 +1683,7 @@
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
@@ -1577,7 +1693,7 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>TW361501</t>
+          <t>10520301</t>
         </is>
       </c>
       <c r="J3" s="0" t="n">
@@ -1615,7 +1731,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
@@ -1625,7 +1741,7 @@
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-Q</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
@@ -1640,7 +1756,7 @@
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
@@ -1650,7 +1766,7 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>TW361502</t>
+          <t>10520302</t>
         </is>
       </c>
       <c r="J4" s="0" t="n">
@@ -1688,7 +1804,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
@@ -1698,7 +1814,7 @@
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
@@ -1713,7 +1829,7 @@
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
@@ -1723,7 +1839,7 @@
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>TW361503</t>
+          <t>10520303</t>
         </is>
       </c>
       <c r="J5" s="0" t="n">
@@ -1761,7 +1877,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -1771,7 +1887,7 @@
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
@@ -1786,17 +1902,17 @@
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>05</t>
         </is>
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>TW361504</t>
+          <t>10520305</t>
         </is>
       </c>
       <c r="J6" s="0" t="n">
@@ -1834,7 +1950,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -1844,7 +1960,7 @@
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-Q</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
@@ -1859,17 +1975,17 @@
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>TW361505</t>
+          <t>10520306</t>
         </is>
       </c>
       <c r="J7" s="0" t="n">
@@ -1907,7 +2023,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
@@ -1917,7 +2033,7 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
@@ -1932,17 +2048,17 @@
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>TW361506</t>
+          <t>10520307</t>
         </is>
       </c>
       <c r="J8" s="0" t="n">
@@ -1980,7 +2096,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -1990,7 +2106,7 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
@@ -2005,17 +2121,17 @@
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>09</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>TW361507</t>
+          <t>10520309</t>
         </is>
       </c>
       <c r="J9" s="0" t="n">
@@ -2053,7 +2169,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -2063,7 +2179,7 @@
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-Q</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
@@ -2078,17 +2194,17 @@
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>TW361508</t>
+          <t>10520310</t>
         </is>
       </c>
       <c r="J10" s="0" t="n">
@@ -2126,7 +2242,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -2136,7 +2252,7 @@
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
@@ -2151,17 +2267,17 @@
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>TW361509</t>
+          <t>10520311</t>
         </is>
       </c>
       <c r="J11" s="0" t="n">
@@ -2199,7 +2315,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -2209,7 +2325,7 @@
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
@@ -2224,17 +2340,17 @@
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>TW361516</t>
+          <t>10520313</t>
         </is>
       </c>
       <c r="J12" s="0" t="n">
@@ -2272,7 +2388,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -2282,7 +2398,7 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-Q</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
@@ -2297,17 +2413,17 @@
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>TW361517</t>
+          <t>10520314</t>
         </is>
       </c>
       <c r="J13" s="0" t="n">
@@ -2345,7 +2461,7 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -2355,7 +2471,7 @@
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
@@ -2370,17 +2486,17 @@
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>TW361518</t>
+          <t>10520315</t>
         </is>
       </c>
       <c r="J14" s="0" t="n">
@@ -2418,7 +2534,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -2428,7 +2544,7 @@
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-Q</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
@@ -2443,17 +2559,17 @@
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>TW361519</t>
+          <t>10520316</t>
         </is>
       </c>
       <c r="J15" s="0" t="n">
@@ -2491,7 +2607,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -2501,7 +2617,7 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
@@ -2516,17 +2632,17 @@
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>TW361520</t>
+          <t>10520317</t>
         </is>
       </c>
       <c r="J16" s="0" t="n">
@@ -2564,7 +2680,7 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -2574,7 +2690,7 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
@@ -2589,17 +2705,17 @@
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>TW361521</t>
+          <t>10520319</t>
         </is>
       </c>
       <c r="J17" s="0" t="n">
@@ -2637,7 +2753,7 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -2647,7 +2763,7 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-Q</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
@@ -2662,17 +2778,17 @@
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>TW361522</t>
+          <t>10520320</t>
         </is>
       </c>
       <c r="J18" s="0" t="n">
@@ -2710,7 +2826,7 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -2720,7 +2836,7 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
@@ -2735,17 +2851,17 @@
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>TW361523</t>
+          <t>10520321</t>
         </is>
       </c>
       <c r="J19" s="0" t="n">
@@ -2783,7 +2899,7 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -2793,7 +2909,7 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-Q</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
@@ -2808,17 +2924,17 @@
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>TW361524</t>
+          <t>10520322</t>
         </is>
       </c>
       <c r="J20" s="0" t="n">
@@ -2856,7 +2972,7 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>1510-2007220002</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -2866,7 +2982,7 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
@@ -2881,17 +2997,17 @@
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>TW3615</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>TW361525</t>
+          <t>10520323</t>
         </is>
       </c>
       <c r="J21" s="0" t="n">
@@ -2929,7 +3045,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2939,39 +3055,39 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-Q</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>TW5C30</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TW5C3002</t>
+          <t>10520324</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K22" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3002,7 +3118,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3012,39 +3128,39 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105203</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TW5H2701</t>
+          <t>10520325</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K23" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3075,7 +3191,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3085,39 +3201,39 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TW5H2702</t>
+          <t>10520501</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K24" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3148,7 +3264,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3158,39 +3274,39 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TW5H2703</t>
+          <t>10520502</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K25" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3221,7 +3337,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3231,39 +3347,39 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TW5H2704</t>
+          <t>10520503</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K26" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3294,7 +3410,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3304,39 +3420,39 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TW5H2705</t>
+          <t>10520504</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K27" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -3367,7 +3483,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3377,39 +3493,39 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>05</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TW5H2706</t>
+          <t>10520505</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K28" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3440,7 +3556,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3450,39 +3566,39 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TW5H2707</t>
+          <t>10520506</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K29" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3513,7 +3629,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3523,39 +3639,39 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TW5H2708</t>
+          <t>10520507</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K30" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3586,7 +3702,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3596,39 +3712,39 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TW5H2709</t>
+          <t>10520508</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K31" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3659,7 +3775,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3669,39 +3785,39 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>09</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TW5H2710</t>
+          <t>10520509</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K32" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3732,7 +3848,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3742,39 +3858,39 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TW5H2711</t>
+          <t>10520510</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K33" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3805,7 +3921,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3815,39 +3931,39 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TW5H2712</t>
+          <t>10520511</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K34" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3878,7 +3994,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3888,39 +4004,39 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TW5H2713</t>
+          <t>10520512</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K35" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3951,7 +4067,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3961,39 +4077,39 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TW5H2714</t>
+          <t>10520513</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K36" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -4024,7 +4140,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -4034,39 +4150,39 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TW5H2715</t>
+          <t>10520514</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K37" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -4097,7 +4213,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4107,39 +4223,39 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TW5H2716</t>
+          <t>10520515</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K38" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -4170,7 +4286,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4180,39 +4296,39 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TW5H2717</t>
+          <t>10520516</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K39" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -4243,7 +4359,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4253,39 +4369,39 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TW5H2718</t>
+          <t>10520517</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K40" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -4316,7 +4432,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4326,39 +4442,39 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TW5H2719</t>
+          <t>10520518</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K41" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -4389,7 +4505,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4399,39 +4515,39 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TW5H2720</t>
+          <t>10520519</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K42" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4462,7 +4578,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4472,39 +4588,39 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TW5H2721</t>
+          <t>10520520</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K43" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4535,7 +4651,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4545,39 +4661,39 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TW5H2722</t>
+          <t>10520521</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K44" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4608,7 +4724,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4618,39 +4734,39 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TW5H2723</t>
+          <t>10520522</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K45" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -4681,7 +4797,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4691,39 +4807,39 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TW5H2724</t>
+          <t>10520523</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K46" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4754,7 +4870,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1510-2007220001</t>
+          <t>1510-2007270001</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4764,39 +4880,39 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>SI24-Q</t>
+          <t>SI74V-QX</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SI24</t>
+          <t>SI74V</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>GX151AM</t>
+          <t>XSX010</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>TW5H27</t>
+          <t>105205</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TW5H2725</t>
+          <t>10520524</t>
         </is>
       </c>
       <c r="J47" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="K47" t="n">
-        <v>6696</v>
+        <v>3306</v>
       </c>
       <c r="L47" t="n">
         <v>0</v>
@@ -4819,6 +4935,1904 @@
       <c r="AB47" t="inlineStr"/>
       <c r="AC47" t="inlineStr"/>
     </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>SI74V-QX</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>105205</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>10520525</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>SI74V-QX</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>10540701</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>SI74V-Q</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>10540702</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>SI74V-QX</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>10540703</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>SI74V-Q</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>10540704</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>SI74V-QX</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>10540705</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>SI74V-Q</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>10540706</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>SI74V-QX</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>10540707</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SI74V-Q</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>10540708</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>SI74V-QX</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>10540709</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>SI74V-Q</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>10540710</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>SI74V-QX</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>10540711</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>SI74V-Q</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>10540712</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>SI74V-QX</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>10540713</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>SI74V-Q</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>10540714</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>SI74V-QX</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>10540715</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>SI74V-Q</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>10540716</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>SI74V-QX</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>10540717</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>SI74V-Q</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>10540718</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>SI74V-QX</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>10540719</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>SI74V-Q</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>10540720</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K68" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>SI74V-QX</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>10540721</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>SI74V-Q</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>10540722</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>SI74V-QX</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>10540723</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>SI74V-Q</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>10540724</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1510-2007270001</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>SX</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>SI74V-QX</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>SI74V</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>XSX010</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>105407</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>10540725</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>3306</v>
+      </c>
+      <c r="K73" t="n">
+        <v>3306</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>

--- a/已上传订单.xlsx
+++ b/已上传订单.xlsx
@@ -1284,7 +1284,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>07885</t>
+          <t>13258</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>07885</t>
+          <t>13258</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>07885</t>
+          <t>13258</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>07885</t>
+          <t>13258</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>07885</t>
+          <t>13258</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">

--- a/已上传订单.xlsx
+++ b/已上传订单.xlsx
@@ -1135,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M7"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -1243,39 +1243,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>SI74V-Q</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55040</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="I3" t="n">
-        <v>26448</v>
+        <v>84375</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>13258</t>
+          <t>07885</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>2020-07-29</t>
         </is>
       </c>
     </row>
@@ -1301,39 +1301,39 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55041</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>42978</v>
+        <v>450000</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>13258</t>
+          <t>07885</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
+          <t>2020-07-29</t>
         </is>
       </c>
     </row>
@@ -1359,39 +1359,39 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H5" t="n">
         <v>25</v>
       </c>
       <c r="I5" t="n">
-        <v>82650</v>
+        <v>703125</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -1400,128 +1400,12 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>13258</t>
+          <t>07885</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2020-07-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>SI74V-Q</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>12</v>
-      </c>
-      <c r="I6" t="n">
-        <v>39672</v>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>非保税</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>13258</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>2020-07-28</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>SI74V-QX</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>13</v>
-      </c>
-      <c r="I7" t="n">
-        <v>42978</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>非保税</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>13258</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>2020-07-28</t>
+          <t>2020-07-29</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC73"/>
+  <dimension ref="A1:AC46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -1658,32 +1542,32 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55040</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
@@ -1693,14 +1577,14 @@
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>10520301</t>
+          <t>TW5504001</t>
         </is>
       </c>
       <c r="J3" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>0</v>
@@ -1731,32 +1615,32 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>SI74V-Q</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55040</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
@@ -1766,14 +1650,14 @@
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>10520302</t>
+          <t>TW5504002</t>
         </is>
       </c>
       <c r="J4" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0</v>
@@ -1804,32 +1688,32 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55040</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
@@ -1839,14 +1723,14 @@
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>10520303</t>
+          <t>TW5504003</t>
         </is>
       </c>
       <c r="J5" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
@@ -1877,49 +1761,49 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55041</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>10520305</t>
+          <t>TW5504110</t>
         </is>
       </c>
       <c r="J6" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>0</v>
@@ -1950,49 +1834,49 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>SI74V-Q</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55041</t>
         </is>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>10520306</t>
+          <t>TW5504111</t>
         </is>
       </c>
       <c r="J7" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>0</v>
@@ -2023,49 +1907,49 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55041</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>10520307</t>
+          <t>TW5504112</t>
         </is>
       </c>
       <c r="J8" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>0</v>
@@ -2096,49 +1980,49 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55041</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>10520309</t>
+          <t>TW5504113</t>
         </is>
       </c>
       <c r="J9" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>0</v>
@@ -2169,49 +2053,49 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>SI74V-Q</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55041</t>
         </is>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>10520310</t>
+          <t>TW5504114</t>
         </is>
       </c>
       <c r="J10" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>0</v>
@@ -2242,49 +2126,49 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55041</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>10520311</t>
+          <t>TW5504115</t>
         </is>
       </c>
       <c r="J11" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>0</v>
@@ -2315,49 +2199,49 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55041</t>
         </is>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>10520313</t>
+          <t>TW5504116</t>
         </is>
       </c>
       <c r="J12" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>0</v>
@@ -2388,49 +2272,49 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>SI74V-Q</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55041</t>
         </is>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>10520314</t>
+          <t>TW5504117</t>
         </is>
       </c>
       <c r="J13" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>0</v>
@@ -2461,49 +2345,49 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55041</t>
         </is>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>10520315</t>
+          <t>TW5504118</t>
         </is>
       </c>
       <c r="J14" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>0</v>
@@ -2534,49 +2418,49 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>SI74V-Q</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55041</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>10520316</t>
+          <t>TW5504119</t>
         </is>
       </c>
       <c r="J15" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>0</v>
@@ -2607,49 +2491,49 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55041</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>10520317</t>
+          <t>TW5504120</t>
         </is>
       </c>
       <c r="J16" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>0</v>
@@ -2680,49 +2564,49 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55041</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>10520319</t>
+          <t>TW5504121</t>
         </is>
       </c>
       <c r="J17" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>0</v>
@@ -2753,49 +2637,49 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>SI74V-Q</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55041</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>10520320</t>
+          <t>TW5504122</t>
         </is>
       </c>
       <c r="J18" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>0</v>
@@ -2826,49 +2710,49 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55041</t>
         </is>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>10520321</t>
+          <t>TW5504123</t>
         </is>
       </c>
       <c r="J19" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>0</v>
@@ -2899,49 +2783,49 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>SI74V-Q</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55041</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>10520322</t>
+          <t>TW5504124</t>
         </is>
       </c>
       <c r="J20" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>0</v>
@@ -2972,49 +2856,49 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55041</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>10520323</t>
+          <t>TW5504125</t>
         </is>
       </c>
       <c r="J21" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>0</v>
@@ -3045,49 +2929,49 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SI74V-Q</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>10520324</t>
+          <t>TW5504201</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K22" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3118,49 +3002,49 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>105203</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>10520325</t>
+          <t>TW5504202</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K23" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3191,49 +3075,49 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>10520501</t>
+          <t>TW5504203</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K24" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3264,49 +3148,49 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>10520502</t>
+          <t>TW5504204</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K25" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3337,49 +3221,49 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>05</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>10520503</t>
+          <t>TW5504205</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K26" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3410,49 +3294,49 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>10520504</t>
+          <t>TW5504206</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K27" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -3483,49 +3367,49 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>10520505</t>
+          <t>TW5504207</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K28" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3556,49 +3440,49 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>10520506</t>
+          <t>TW5504208</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K29" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3629,49 +3513,49 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>09</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>10520507</t>
+          <t>TW5504209</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K30" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3702,49 +3586,49 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>10520508</t>
+          <t>TW5504210</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K31" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3775,49 +3659,49 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>10520509</t>
+          <t>TW5504211</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K32" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3848,49 +3732,49 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>10520510</t>
+          <t>TW5504212</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K33" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3921,49 +3805,49 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>10520511</t>
+          <t>TW5504213</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K34" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3994,49 +3878,49 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>10520512</t>
+          <t>TW5504214</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K35" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -4067,49 +3951,49 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>10520513</t>
+          <t>TW5504215</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K36" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -4140,49 +4024,49 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>10520514</t>
+          <t>TW5504216</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K37" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -4213,49 +4097,49 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>10520515</t>
+          <t>TW5504217</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K38" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -4286,49 +4170,49 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>10520516</t>
+          <t>TW5504218</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K39" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -4359,49 +4243,49 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>10520517</t>
+          <t>TW5504219</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K40" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -4432,49 +4316,49 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>10520518</t>
+          <t>TW5504220</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K41" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -4505,49 +4389,49 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>10520519</t>
+          <t>TW5504221</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K42" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4578,49 +4462,49 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>10520520</t>
+          <t>TW5504222</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K43" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4651,49 +4535,49 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>10520521</t>
+          <t>TW5504223</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K44" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4724,49 +4608,49 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>10520522</t>
+          <t>TW5504224</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K45" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -4797,49 +4681,49 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1510-2007270001</t>
+          <t>AP623013P_20200525_Bump_Prod</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>SX</t>
+          <t>BJ105</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SI74V-QX</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SI74V</t>
+          <t>AP623013P</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>XSX010</t>
+          <t>XBJ10511B</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>105205</t>
+          <t>TW55042</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>10520523</t>
+          <t>TW5504225</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="K46" t="n">
-        <v>3306</v>
+        <v>28125</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4862,1977 +4746,6 @@
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>SI74V-QX</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>105205</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>10520524</t>
-        </is>
-      </c>
-      <c r="J47" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K47" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>SI74V-QX</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>105205</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>10520525</t>
-        </is>
-      </c>
-      <c r="J48" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K48" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>SI74V-QX</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>10540701</t>
-        </is>
-      </c>
-      <c r="J49" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K49" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>SI74V-Q</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>10540702</t>
-        </is>
-      </c>
-      <c r="J50" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K50" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>SI74V-QX</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>10540703</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K51" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L51" t="n">
-        <v>0</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>SI74V-Q</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>10540704</t>
-        </is>
-      </c>
-      <c r="J52" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K52" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L52" t="n">
-        <v>0</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>SI74V-QX</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>10540705</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K53" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L53" t="n">
-        <v>0</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>SI74V-Q</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>10540706</t>
-        </is>
-      </c>
-      <c r="J54" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K54" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L54" t="n">
-        <v>0</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>SI74V-QX</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>10540707</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K55" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L55" t="n">
-        <v>0</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>SI74V-Q</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>10540708</t>
-        </is>
-      </c>
-      <c r="J56" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K56" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L56" t="n">
-        <v>0</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>SI74V-QX</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>10540709</t>
-        </is>
-      </c>
-      <c r="J57" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K57" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L57" t="n">
-        <v>0</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>SI74V-Q</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>10540710</t>
-        </is>
-      </c>
-      <c r="J58" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K58" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L58" t="n">
-        <v>0</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>SI74V-QX</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>10540711</t>
-        </is>
-      </c>
-      <c r="J59" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K59" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L59" t="n">
-        <v>0</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>SI74V-Q</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>10540712</t>
-        </is>
-      </c>
-      <c r="J60" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K60" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L60" t="n">
-        <v>0</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>SI74V-QX</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>10540713</t>
-        </is>
-      </c>
-      <c r="J61" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K61" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L61" t="n">
-        <v>0</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>SI74V-Q</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>10540714</t>
-        </is>
-      </c>
-      <c r="J62" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K62" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L62" t="n">
-        <v>0</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>SI74V-QX</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>10540715</t>
-        </is>
-      </c>
-      <c r="J63" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K63" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L63" t="n">
-        <v>0</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>SI74V-Q</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>10540716</t>
-        </is>
-      </c>
-      <c r="J64" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K64" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L64" t="n">
-        <v>0</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>SI74V-QX</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>10540717</t>
-        </is>
-      </c>
-      <c r="J65" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K65" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>SI74V-Q</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>10540718</t>
-        </is>
-      </c>
-      <c r="J66" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K66" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
-      <c r="AC66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>SI74V-QX</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>10540719</t>
-        </is>
-      </c>
-      <c r="J67" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K67" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
-      <c r="AC67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>SI74V-Q</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>10540720</t>
-        </is>
-      </c>
-      <c r="J68" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K68" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>SI74V-QX</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>10540721</t>
-        </is>
-      </c>
-      <c r="J69" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K69" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="inlineStr"/>
-      <c r="T69" t="inlineStr"/>
-      <c r="U69" t="inlineStr"/>
-      <c r="V69" t="inlineStr"/>
-      <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr"/>
-      <c r="Z69" t="inlineStr"/>
-      <c r="AA69" t="inlineStr"/>
-      <c r="AB69" t="inlineStr"/>
-      <c r="AC69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>SI74V-Q</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>10540722</t>
-        </is>
-      </c>
-      <c r="J70" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K70" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L70" t="n">
-        <v>0</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="inlineStr"/>
-      <c r="T70" t="inlineStr"/>
-      <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr"/>
-      <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr"/>
-      <c r="Z70" t="inlineStr"/>
-      <c r="AA70" t="inlineStr"/>
-      <c r="AB70" t="inlineStr"/>
-      <c r="AC70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>SI74V-QX</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>10540723</t>
-        </is>
-      </c>
-      <c r="J71" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K71" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr"/>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-      <c r="Z71" t="inlineStr"/>
-      <c r="AA71" t="inlineStr"/>
-      <c r="AB71" t="inlineStr"/>
-      <c r="AC71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>SI74V-Q</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>10540724</t>
-        </is>
-      </c>
-      <c r="J72" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K72" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L72" t="n">
-        <v>0</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr"/>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-      <c r="Z72" t="inlineStr"/>
-      <c r="AA72" t="inlineStr"/>
-      <c r="AB72" t="inlineStr"/>
-      <c r="AC72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1510-2007270001</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>SX</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>SI74V-QX</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>SI74V</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>XSX010</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>105407</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>10540725</t>
-        </is>
-      </c>
-      <c r="J73" t="n">
-        <v>3306</v>
-      </c>
-      <c r="K73" t="n">
-        <v>3306</v>
-      </c>
-      <c r="L73" t="n">
-        <v>0</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr"/>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-      <c r="Z73" t="inlineStr"/>
-      <c r="AA73" t="inlineStr"/>
-      <c r="AB73" t="inlineStr"/>
-      <c r="AC73" t="inlineStr"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>

--- a/已上传订单.xlsx
+++ b/已上传订单.xlsx
@@ -1289,7 +1289,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>2020-07-31</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>2020-07-31</t>
         </is>
       </c>
     </row>
@@ -1405,7 +1405,7 @@
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>2020-07-29</t>
+          <t>2020-07-31</t>
         </is>
       </c>
     </row>

--- a/已上传订单.xlsx
+++ b/已上传订单.xlsx
@@ -1135,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -1243,43 +1243,43 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TW55040</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="I3" t="n">
-        <v>84375</v>
+        <v>159500</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>非保税</t>
+          <t>保税</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2020-07-31</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
@@ -1301,43 +1301,43 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="I4" t="n">
-        <v>450000</v>
+        <v>181250</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>非保税</t>
+          <t>保税</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -1347,65 +1347,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2020-07-31</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>BJ105</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>AP623013P</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>XBJ10511B</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>TW55042</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>25</v>
-      </c>
-      <c r="I5" t="n">
-        <v>703125</v>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>非保税</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>07885</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>2020-07-31</t>
+          <t>2020-08-05</t>
         </is>
       </c>
     </row>
@@ -1423,7 +1365,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AC49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -1542,49 +1484,49 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>TW55040</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>TW5504001</t>
+          <t>TWRS13.104</t>
         </is>
       </c>
       <c r="J3" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L3" s="0" t="n">
         <v>0</v>
@@ -1615,49 +1557,49 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>TW55040</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>05</t>
         </is>
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>TW5504002</t>
+          <t>TWRS13.105</t>
         </is>
       </c>
       <c r="J4" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>0</v>
@@ -1688,49 +1630,49 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>TW55040</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>TW5504003</t>
+          <t>TWRS13.106</t>
         </is>
       </c>
       <c r="J5" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>0</v>
@@ -1761,49 +1703,49 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>TW5504110</t>
+          <t>TWRS13.107</t>
         </is>
       </c>
       <c r="J6" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>0</v>
@@ -1834,49 +1776,49 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>TW5504111</t>
+          <t>TWRS13.108</t>
         </is>
       </c>
       <c r="J7" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>0</v>
@@ -1907,49 +1849,49 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>09</t>
         </is>
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>TW5504112</t>
+          <t>TWRS13.109</t>
         </is>
       </c>
       <c r="J8" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>0</v>
@@ -1980,49 +1922,49 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>TW5504113</t>
+          <t>TWRS13.110</t>
         </is>
       </c>
       <c r="J9" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>0</v>
@@ -2053,49 +1995,49 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>TW5504114</t>
+          <t>TWRS13.111</t>
         </is>
       </c>
       <c r="J10" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>0</v>
@@ -2126,49 +2068,49 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>TW5504115</t>
+          <t>TWRS13.112</t>
         </is>
       </c>
       <c r="J11" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>0</v>
@@ -2199,49 +2141,49 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>TW5504116</t>
+          <t>TWRS13.113</t>
         </is>
       </c>
       <c r="J12" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>0</v>
@@ -2272,49 +2214,49 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>TW5504117</t>
+          <t>TWRS13.114</t>
         </is>
       </c>
       <c r="J13" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>0</v>
@@ -2345,49 +2287,49 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>TW5504118</t>
+          <t>TWRS13.115</t>
         </is>
       </c>
       <c r="J14" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>0</v>
@@ -2418,49 +2360,49 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>TW5504119</t>
+          <t>TWRS13.116</t>
         </is>
       </c>
       <c r="J15" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>0</v>
@@ -2491,49 +2433,49 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>TW5504120</t>
+          <t>TWRS13.117</t>
         </is>
       </c>
       <c r="J16" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>0</v>
@@ -2564,49 +2506,49 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>TW5504121</t>
+          <t>TWRS13.118</t>
         </is>
       </c>
       <c r="J17" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>0</v>
@@ -2637,49 +2579,49 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>TW5504122</t>
+          <t>TWRS13.119</t>
         </is>
       </c>
       <c r="J18" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>0</v>
@@ -2710,49 +2652,49 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>TW5504123</t>
+          <t>TWRS13.120</t>
         </is>
       </c>
       <c r="J19" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>0</v>
@@ -2783,49 +2725,49 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>TW5504124</t>
+          <t>TWRS13.121</t>
         </is>
       </c>
       <c r="J20" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>0</v>
@@ -2856,49 +2798,49 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>TW55041</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>TW5504125</t>
+          <t>TWRS13.122</t>
         </is>
       </c>
       <c r="J21" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>0</v>
@@ -2929,49 +2871,49 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TW5504201</t>
+          <t>TWRS13.123</t>
         </is>
       </c>
       <c r="J22" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K22" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -3002,49 +2944,49 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TW5504202</t>
+          <t>TWRS13.124</t>
         </is>
       </c>
       <c r="J23" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K23" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -3075,49 +3017,49 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWRS13.1</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TW5504203</t>
+          <t>TWRS13.125</t>
         </is>
       </c>
       <c r="J24" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K24" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -3148,49 +3090,49 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TW5504204</t>
+          <t>TWTC90.101</t>
         </is>
       </c>
       <c r="J25" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K25" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -3221,49 +3163,49 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TW5504205</t>
+          <t>TWTC90.102</t>
         </is>
       </c>
       <c r="J26" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K26" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -3294,49 +3236,49 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TW5504206</t>
+          <t>TWTC90.103</t>
         </is>
       </c>
       <c r="J27" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K27" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -3367,49 +3309,49 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TW5504207</t>
+          <t>TWTC90.104</t>
         </is>
       </c>
       <c r="J28" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K28" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -3440,49 +3382,49 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>05</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TW5504208</t>
+          <t>TWTC90.105</t>
         </is>
       </c>
       <c r="J29" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K29" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -3513,49 +3455,49 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TW5504209</t>
+          <t>TWTC90.106</t>
         </is>
       </c>
       <c r="J30" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K30" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -3586,49 +3528,49 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TW5504210</t>
+          <t>TWTC90.107</t>
         </is>
       </c>
       <c r="J31" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K31" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3659,49 +3601,49 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TW5504211</t>
+          <t>TWTC90.108</t>
         </is>
       </c>
       <c r="J32" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K32" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3732,49 +3674,49 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>09</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TW5504212</t>
+          <t>TWTC90.109</t>
         </is>
       </c>
       <c r="J33" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K33" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -3805,49 +3747,49 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TW5504213</t>
+          <t>TWTC90.110</t>
         </is>
       </c>
       <c r="J34" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K34" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -3878,49 +3820,49 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TW5504214</t>
+          <t>TWTC90.111</t>
         </is>
       </c>
       <c r="J35" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K35" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -3951,49 +3893,49 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TW5504215</t>
+          <t>TWTC90.112</t>
         </is>
       </c>
       <c r="J36" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K36" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -4024,49 +3966,49 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TW5504216</t>
+          <t>TWTC90.113</t>
         </is>
       </c>
       <c r="J37" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K37" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -4097,49 +4039,49 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TW5504217</t>
+          <t>TWTC90.114</t>
         </is>
       </c>
       <c r="J38" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K38" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -4170,49 +4112,49 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TW5504218</t>
+          <t>TWTC90.115</t>
         </is>
       </c>
       <c r="J39" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K39" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -4243,49 +4185,49 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TW5504219</t>
+          <t>TWTC90.116</t>
         </is>
       </c>
       <c r="J40" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K40" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -4316,49 +4258,49 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TW5504220</t>
+          <t>TWTC90.117</t>
         </is>
       </c>
       <c r="J41" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K41" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -4389,49 +4331,49 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TW5504221</t>
+          <t>TWTC90.118</t>
         </is>
       </c>
       <c r="J42" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K42" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4462,49 +4404,49 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TW5504222</t>
+          <t>TWTC90.119</t>
         </is>
       </c>
       <c r="J43" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K43" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -4535,49 +4477,49 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TW5504223</t>
+          <t>TWTC90.120</t>
         </is>
       </c>
       <c r="J44" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K44" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -4608,49 +4550,49 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TW5504224</t>
+          <t>TWTC90.121</t>
         </is>
       </c>
       <c r="J45" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K45" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -4681,49 +4623,49 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AP623013P_20200525_Bump_Prod</t>
+          <t>6600007823</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>BJ105</t>
+          <t>HD</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>GH3103</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>AP623013P</t>
+          <t>TMMI60C</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>XBJ10511B</t>
+          <t>XHDA12B</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>TW55042</t>
+          <t>TWTC90.1</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TW5504225</t>
+          <t>TWTC90.122</t>
         </is>
       </c>
       <c r="J46" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="K46" t="n">
-        <v>28125</v>
+        <v>3625</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -4746,6 +4688,225 @@
       <c r="AB46" t="inlineStr"/>
       <c r="AC46" t="inlineStr"/>
     </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>6600007823</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>TMMI60C</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>TWTC90.1</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>TWTC90.123</t>
+        </is>
+      </c>
+      <c r="J47" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K47" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>6600007823</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>TMMI60C</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>TWTC90.1</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>TWTC90.124</t>
+        </is>
+      </c>
+      <c r="J48" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K48" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L48" t="n">
+        <v>0</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>6600007823</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>TMMI60C</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>TWTC90.1</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>TWTC90.125</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K49" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L49" t="n">
+        <v>0</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>

--- a/已上传订单.xlsx
+++ b/已上传订单.xlsx
@@ -1289,7 +1289,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-08-06</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2020-08-05</t>
+          <t>2020-08-06</t>
         </is>
       </c>
     </row>

--- a/已上传订单.xlsx
+++ b/已上传订单.xlsx
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="I3" t="n">
         <v>159500</v>
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="I4" t="n">
         <v>181250</v>

--- a/已上传订单.xlsx
+++ b/已上传订单.xlsx
@@ -1279,7 +1279,7 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>保税</t>
+          <t>非保税</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -1337,7 +1337,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>保税</t>
+          <t>非保税</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">

--- a/已上传订单.xlsx
+++ b/已上传订单.xlsx
@@ -1135,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -1258,7 +1258,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -1268,14 +1268,14 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I3" t="n">
-        <v>159500</v>
+        <v>181250</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>07885</t>
+          <t>17143</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>2020-08-17</t>
         </is>
       </c>
     </row>
@@ -1301,7 +1301,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -1342,12 +1342,70 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>07885</t>
+          <t>17143</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>2020-08-06</t>
+          <t>2020-08-17</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>25</v>
+      </c>
+      <c r="I5" t="n">
+        <v>181250</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>非保税</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>17143</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>2020-08-17</t>
         </is>
       </c>
     </row>
@@ -1365,7 +1423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC49"/>
+  <dimension ref="A1:AC77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane activePane="bottomLeft" state="frozen" topLeftCell="A3" ySplit="2"/>
@@ -1484,7 +1542,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
@@ -1499,7 +1557,7 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
@@ -1509,17 +1567,17 @@
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H3" s="0" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I3" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.104</t>
+          <t>Q1AP96.101</t>
         </is>
       </c>
       <c r="J3" s="0" t="n">
@@ -1557,7 +1615,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
@@ -1572,7 +1630,7 @@
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
@@ -1582,17 +1640,17 @@
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H4" s="0" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.105</t>
+          <t>Q1AP96.102</t>
         </is>
       </c>
       <c r="J4" s="0" t="n">
@@ -1630,7 +1688,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
@@ -1645,7 +1703,7 @@
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
@@ -1655,17 +1713,17 @@
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H5" s="0" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I5" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.106</t>
+          <t>Q1AP96.103</t>
         </is>
       </c>
       <c r="J5" s="0" t="n">
@@ -1703,7 +1761,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
@@ -1718,7 +1776,7 @@
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
@@ -1728,17 +1786,17 @@
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H6" s="0" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I6" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.107</t>
+          <t>Q1AP96.104</t>
         </is>
       </c>
       <c r="J6" s="0" t="n">
@@ -1776,7 +1834,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
@@ -1791,7 +1849,7 @@
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
@@ -1801,17 +1859,17 @@
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H7" s="0" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>05</t>
         </is>
       </c>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.108</t>
+          <t>Q1AP96.105</t>
         </is>
       </c>
       <c r="J7" s="0" t="n">
@@ -1849,7 +1907,7 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
@@ -1864,7 +1922,7 @@
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
@@ -1874,17 +1932,17 @@
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.109</t>
+          <t>Q1AP96.106</t>
         </is>
       </c>
       <c r="J8" s="0" t="n">
@@ -1922,7 +1980,7 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
@@ -1937,7 +1995,7 @@
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
@@ -1947,17 +2005,17 @@
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H9" s="0" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.110</t>
+          <t>Q1AP96.107</t>
         </is>
       </c>
       <c r="J9" s="0" t="n">
@@ -1995,7 +2053,7 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
@@ -2010,7 +2068,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
@@ -2020,17 +2078,17 @@
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H10" s="0" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.111</t>
+          <t>Q1AP96.108</t>
         </is>
       </c>
       <c r="J10" s="0" t="n">
@@ -2068,7 +2126,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
@@ -2083,7 +2141,7 @@
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
@@ -2093,17 +2151,17 @@
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H11" s="0" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>09</t>
         </is>
       </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.112</t>
+          <t>Q1AP96.109</t>
         </is>
       </c>
       <c r="J11" s="0" t="n">
@@ -2141,7 +2199,7 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
@@ -2156,7 +2214,7 @@
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
@@ -2166,17 +2224,17 @@
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H12" s="0" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.113</t>
+          <t>Q1AP96.110</t>
         </is>
       </c>
       <c r="J12" s="0" t="n">
@@ -2214,7 +2272,7 @@
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C13" s="0" t="inlineStr">
@@ -2229,7 +2287,7 @@
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
@@ -2239,17 +2297,17 @@
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H13" s="0" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.114</t>
+          <t>Q1AP96.111</t>
         </is>
       </c>
       <c r="J13" s="0" t="n">
@@ -2287,7 +2345,7 @@
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C14" s="0" t="inlineStr">
@@ -2302,7 +2360,7 @@
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F14" s="0" t="inlineStr">
@@ -2312,17 +2370,17 @@
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H14" s="0" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.115</t>
+          <t>Q1AP96.112</t>
         </is>
       </c>
       <c r="J14" s="0" t="n">
@@ -2360,7 +2418,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
@@ -2375,7 +2433,7 @@
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F15" s="0" t="inlineStr">
@@ -2385,17 +2443,17 @@
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.116</t>
+          <t>Q1AP96.113</t>
         </is>
       </c>
       <c r="J15" s="0" t="n">
@@ -2433,7 +2491,7 @@
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C16" s="0" t="inlineStr">
@@ -2448,7 +2506,7 @@
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
@@ -2458,17 +2516,17 @@
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.117</t>
+          <t>Q1AP96.114</t>
         </is>
       </c>
       <c r="J16" s="0" t="n">
@@ -2506,7 +2564,7 @@
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
@@ -2521,7 +2579,7 @@
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
@@ -2531,17 +2589,17 @@
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H17" s="0" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.118</t>
+          <t>Q1AP96.115</t>
         </is>
       </c>
       <c r="J17" s="0" t="n">
@@ -2579,7 +2637,7 @@
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
@@ -2594,7 +2652,7 @@
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
@@ -2604,17 +2662,17 @@
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H18" s="0" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.119</t>
+          <t>Q1AP96.116</t>
         </is>
       </c>
       <c r="J18" s="0" t="n">
@@ -2652,7 +2710,7 @@
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C19" s="0" t="inlineStr">
@@ -2667,7 +2725,7 @@
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
@@ -2677,17 +2735,17 @@
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H19" s="0" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.120</t>
+          <t>Q1AP96.117</t>
         </is>
       </c>
       <c r="J19" s="0" t="n">
@@ -2725,7 +2783,7 @@
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C20" s="0" t="inlineStr">
@@ -2740,7 +2798,7 @@
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
@@ -2750,17 +2808,17 @@
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H20" s="0" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.121</t>
+          <t>Q1AP96.118</t>
         </is>
       </c>
       <c r="J20" s="0" t="n">
@@ -2798,7 +2856,7 @@
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C21" s="0" t="inlineStr">
@@ -2813,7 +2871,7 @@
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
@@ -2823,17 +2881,17 @@
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H21" s="0" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>TWRS13.122</t>
+          <t>Q1AP96.119</t>
         </is>
       </c>
       <c r="J21" s="0" t="n">
@@ -2871,7 +2929,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2886,7 +2944,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2896,17 +2954,17 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>TWRS13.123</t>
+          <t>Q1AP96.120</t>
         </is>
       </c>
       <c r="J22" t="n">
@@ -2944,7 +3002,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2959,7 +3017,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2969,17 +3027,17 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>TWRS13.124</t>
+          <t>Q1AP96.121</t>
         </is>
       </c>
       <c r="J23" t="n">
@@ -3017,7 +3075,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3032,7 +3090,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -3042,17 +3100,17 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>TWRS13.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>TWRS13.125</t>
+          <t>Q1AP96.122</t>
         </is>
       </c>
       <c r="J24" t="n">
@@ -3090,7 +3148,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3105,7 +3163,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -3115,17 +3173,17 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>01</t>
+          <t>23</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>TWTC90.101</t>
+          <t>Q1AP96.123</t>
         </is>
       </c>
       <c r="J25" t="n">
@@ -3163,7 +3221,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3178,7 +3236,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3188,17 +3246,17 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>02</t>
+          <t>24</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>TWTC90.102</t>
+          <t>Q1AP96.124</t>
         </is>
       </c>
       <c r="J26" t="n">
@@ -3236,7 +3294,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3251,7 +3309,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3261,17 +3319,17 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP96.1</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>03</t>
+          <t>25</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>TWTC90.103</t>
+          <t>Q1AP96.125</t>
         </is>
       </c>
       <c r="J27" t="n">
@@ -3309,7 +3367,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3324,7 +3382,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3334,17 +3392,17 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>04</t>
+          <t>01</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>TWTC90.104</t>
+          <t>Q1AP97.101</t>
         </is>
       </c>
       <c r="J28" t="n">
@@ -3382,7 +3440,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3397,7 +3455,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3407,17 +3465,17 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>05</t>
+          <t>02</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>TWTC90.105</t>
+          <t>Q1AP97.102</t>
         </is>
       </c>
       <c r="J29" t="n">
@@ -3455,7 +3513,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3470,7 +3528,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3480,17 +3538,17 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>06</t>
+          <t>03</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>TWTC90.106</t>
+          <t>Q1AP97.103</t>
         </is>
       </c>
       <c r="J30" t="n">
@@ -3528,7 +3586,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -3543,7 +3601,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3553,17 +3611,17 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>07</t>
+          <t>04</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>TWTC90.107</t>
+          <t>Q1AP97.104</t>
         </is>
       </c>
       <c r="J31" t="n">
@@ -3601,7 +3659,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -3616,7 +3674,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3626,17 +3684,17 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>08</t>
+          <t>05</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>TWTC90.108</t>
+          <t>Q1AP97.105</t>
         </is>
       </c>
       <c r="J32" t="n">
@@ -3674,7 +3732,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3689,7 +3747,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3699,17 +3757,17 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>09</t>
+          <t>06</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>TWTC90.109</t>
+          <t>Q1AP97.106</t>
         </is>
       </c>
       <c r="J33" t="n">
@@ -3747,7 +3805,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3762,7 +3820,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3772,17 +3830,17 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>07</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>TWTC90.110</t>
+          <t>Q1AP97.107</t>
         </is>
       </c>
       <c r="J34" t="n">
@@ -3820,7 +3878,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3835,7 +3893,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3845,17 +3903,17 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>08</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>TWTC90.111</t>
+          <t>Q1AP97.108</t>
         </is>
       </c>
       <c r="J35" t="n">
@@ -3893,7 +3951,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3908,7 +3966,7 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -3918,17 +3976,17 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>09</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>TWTC90.112</t>
+          <t>Q1AP97.109</t>
         </is>
       </c>
       <c r="J36" t="n">
@@ -3966,7 +4024,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -3981,7 +4039,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -3991,17 +4049,17 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>10</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>TWTC90.113</t>
+          <t>Q1AP97.110</t>
         </is>
       </c>
       <c r="J37" t="n">
@@ -4039,7 +4097,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -4054,7 +4112,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4064,17 +4122,17 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>11</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>TWTC90.114</t>
+          <t>Q1AP97.111</t>
         </is>
       </c>
       <c r="J38" t="n">
@@ -4112,7 +4170,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -4127,7 +4185,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4137,17 +4195,17 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>TWTC90.115</t>
+          <t>Q1AP97.112</t>
         </is>
       </c>
       <c r="J39" t="n">
@@ -4185,7 +4243,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -4200,7 +4258,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4210,17 +4268,17 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>13</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>TWTC90.116</t>
+          <t>Q1AP97.113</t>
         </is>
       </c>
       <c r="J40" t="n">
@@ -4258,7 +4316,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -4273,7 +4331,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4283,17 +4341,17 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>14</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>TWTC90.117</t>
+          <t>Q1AP97.114</t>
         </is>
       </c>
       <c r="J41" t="n">
@@ -4331,7 +4389,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -4346,7 +4404,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4356,17 +4414,17 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>15</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>TWTC90.118</t>
+          <t>Q1AP97.115</t>
         </is>
       </c>
       <c r="J42" t="n">
@@ -4404,7 +4462,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -4419,7 +4477,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4429,17 +4487,17 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>16</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>TWTC90.119</t>
+          <t>Q1AP97.116</t>
         </is>
       </c>
       <c r="J43" t="n">
@@ -4477,7 +4535,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4492,7 +4550,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4502,17 +4560,17 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>17</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>TWTC90.120</t>
+          <t>Q1AP97.117</t>
         </is>
       </c>
       <c r="J44" t="n">
@@ -4550,7 +4608,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -4565,7 +4623,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4575,17 +4633,17 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>18</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>TWTC90.121</t>
+          <t>Q1AP97.118</t>
         </is>
       </c>
       <c r="J45" t="n">
@@ -4623,7 +4681,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4638,7 +4696,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -4648,17 +4706,17 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>19</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>TWTC90.122</t>
+          <t>Q1AP97.119</t>
         </is>
       </c>
       <c r="J46" t="n">
@@ -4696,7 +4754,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4711,7 +4769,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -4721,17 +4779,17 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>20</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>TWTC90.123</t>
+          <t>Q1AP97.120</t>
         </is>
       </c>
       <c r="J47" t="n">
@@ -4769,7 +4827,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4784,7 +4842,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -4794,17 +4852,17 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>TWTC90.124</t>
+          <t>Q1AP97.121</t>
         </is>
       </c>
       <c r="J48" t="n">
@@ -4842,7 +4900,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>6600007823</t>
+          <t>6600008025</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -4857,7 +4915,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>TMMI60C</t>
+          <t>TMNH28A</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -4867,17 +4925,17 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>TWTC90.1</t>
+          <t>Q1AP97.1</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>22</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>TWTC90.125</t>
+          <t>Q1AP97.122</t>
         </is>
       </c>
       <c r="J49" t="n">
@@ -4907,6 +4965,2050 @@
       <c r="AB49" t="inlineStr"/>
       <c r="AC49" t="inlineStr"/>
     </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Q1AP97.1</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Q1AP97.123</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K50" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L50" t="n">
+        <v>0</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Q1AP97.1</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Q1AP97.124</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K51" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L51" t="n">
+        <v>0</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Q1AP97.1</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Q1AP97.125</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K52" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L52" t="n">
+        <v>0</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>01</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Q1AR00.101</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K53" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>02</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Q1AR00.102</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K54" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>03</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Q1AR00.103</t>
+        </is>
+      </c>
+      <c r="J55" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K55" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L55" t="n">
+        <v>0</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>04</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Q1AR00.104</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K56" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L56" t="n">
+        <v>0</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>05</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Q1AR00.105</t>
+        </is>
+      </c>
+      <c r="J57" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K57" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>06</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>Q1AR00.106</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K58" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>07</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>Q1AR00.107</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K59" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>08</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>Q1AR00.108</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K60" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L60" t="n">
+        <v>0</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>09</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Q1AR00.109</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K61" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Q1AR00.110</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K62" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>Q1AR00.111</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K63" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Q1AR00.112</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Q1AR00.113</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K65" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>Q1AR00.114</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>Q1AR00.115</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K67" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Q1AR00.116</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K68" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Q1AR00.117</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K69" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>Q1AR00.118</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Q1AR00.119</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>Q1AR00.120</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>Q1AR00.121</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K73" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>Q1AR00.122</t>
+        </is>
+      </c>
+      <c r="J74" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L74" t="n">
+        <v>0</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>Q1AR00.123</t>
+        </is>
+      </c>
+      <c r="J75" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K75" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Q1AR00.124</t>
+        </is>
+      </c>
+      <c r="J76" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K76" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L76" t="n">
+        <v>0</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>6600008025</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>GH3103</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>TMNH28A</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>XHDA12B</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Q1AR00.1</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>Q1AR00.125</t>
+        </is>
+      </c>
+      <c r="J77" t="n">
+        <v>3625</v>
+      </c>
+      <c r="K77" t="n">
+        <v>3625</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:M1"/>
